--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="26835" windowHeight="12585"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="7425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -22,12 +22,17 @@
     <definedName name="subs">#REF!</definedName>
     <definedName name="thresh">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>dia</t>
   </si>
@@ -296,9 +301,6 @@
     <t>force/dia</t>
   </si>
   <si>
-    <t>force/dia^2</t>
-  </si>
-  <si>
     <t>&lt;- I agree this is a very weird formula, but it does keep true to stock.</t>
   </si>
   <si>
@@ -306,13 +308,67 @@
   </si>
   <si>
     <t>As you can see, no real agreement in any of the force ratios above.</t>
+  </si>
+  <si>
+    <t>noseCone</t>
+  </si>
+  <si>
+    <t>stability</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>rocketNoseCone</t>
+  </si>
+  <si>
+    <t>standardNoseCone</t>
+  </si>
+  <si>
+    <t>advAerodynamics</t>
+  </si>
+  <si>
+    <t>noseConeAdapter</t>
+  </si>
+  <si>
+    <t>adapterSmallMiniShort</t>
+  </si>
+  <si>
+    <t>specializedConstruction</t>
+  </si>
+  <si>
+    <t>adapterSmallMiniTall</t>
+  </si>
+  <si>
+    <t>largeAdapter</t>
+  </si>
+  <si>
+    <t>largeAdapter2</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>force/area</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +380,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,17 +418,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,11 +731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
@@ -663,15 +743,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:26">
       <c r="B2" t="s">
@@ -727,7 +807,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E3" t="s">
@@ -809,15 +889,15 @@
         <v>65.4615488213486</v>
       </c>
       <c r="V4">
-        <f>SUM(E4:F4)/D4</f>
+        <f t="shared" ref="V4:V13" si="0">SUM(E4:F4)/D4</f>
         <v>849</v>
       </c>
       <c r="W4">
-        <f>E4/D4</f>
+        <f t="shared" ref="W4:W13" si="1">E4/D4</f>
         <v>382.33333333333337</v>
       </c>
       <c r="X4">
-        <f>F4/D4</f>
+        <f t="shared" ref="X4:X13" si="2">F4/D4</f>
         <v>466.66666666666669</v>
       </c>
       <c r="Z4">
@@ -842,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <f>SUM(E5:F5)/D5</f>
+        <f t="shared" si="0"/>
         <v>887.99999999999989</v>
       </c>
       <c r="W5">
-        <f>E5/D5</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="X5">
-        <f>F5/D5</f>
+        <f t="shared" si="2"/>
         <v>487.99999999999994</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z32" si="0">L5/D5</f>
+        <f t="shared" ref="Z5:Z32" si="3">L5/D5</f>
         <v>0</v>
       </c>
     </row>
@@ -902,35 +982,35 @@
         <v>2900</v>
       </c>
       <c r="R6">
-        <f>C6*PI()*B6^2*0.25</f>
+        <f t="shared" ref="R6:R13" si="4">C6*PI()*B6^2*0.25</f>
         <v>0.95873799242852575</v>
       </c>
       <c r="S6">
-        <f>D6/$R6</f>
+        <f t="shared" ref="S6:U13" si="5">D6/$R6</f>
         <v>6.518986469044033E-2</v>
       </c>
       <c r="T6">
-        <f>E6/$R6</f>
+        <f t="shared" si="5"/>
         <v>46.936702577117039</v>
       </c>
       <c r="U6">
-        <f>F6/$R6</f>
+        <f t="shared" si="5"/>
         <v>57.367080927587487</v>
       </c>
       <c r="V6">
-        <f>SUM(E6:F6)/D6</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W6">
-        <f>E6/D6</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X6">
-        <f>F6/D6</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
@@ -978,35 +1058,35 @@
         <v>2900</v>
       </c>
       <c r="R7">
-        <f>C7*PI()*B7^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>1.3627885319576036</v>
       </c>
       <c r="S7">
-        <f>D7/$R7</f>
+        <f t="shared" si="5"/>
         <v>9.1723695253321039E-2</v>
       </c>
       <c r="T7">
-        <f>E7/$R7</f>
+        <f t="shared" si="5"/>
         <v>66.041060582391154</v>
       </c>
       <c r="U7">
-        <f>F7/$R7</f>
+        <f t="shared" si="5"/>
         <v>80.716851822922521</v>
       </c>
       <c r="V7">
-        <f>SUM(E7:F7)/D7</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W7">
-        <f>E7/D7</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X7">
-        <f>F7/D7</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
@@ -1054,35 +1134,35 @@
         <v>2900</v>
       </c>
       <c r="R8">
-        <f>C8*PI()*B8^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>2.304885900799146</v>
       </c>
       <c r="S8">
-        <f>D8/$R8</f>
+        <f t="shared" si="5"/>
         <v>0.10846523895752082</v>
       </c>
       <c r="T8">
-        <f>E8/$R8</f>
+        <f t="shared" si="5"/>
         <v>78.094972049414991</v>
       </c>
       <c r="U8">
-        <f>F8/$R8</f>
+        <f t="shared" si="5"/>
         <v>95.449410282618317</v>
       </c>
       <c r="V8">
-        <f>SUM(E8:F8)/D8</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W8">
-        <f>E8/D8</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X8">
-        <f>F8/D8</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -1130,35 +1210,35 @@
         <v>2900</v>
       </c>
       <c r="R9">
-        <f>C9*PI()*B9^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
       <c r="S9">
-        <f>D9/$R9</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="T9">
-        <f>E9/$R9</f>
+        <f t="shared" si="5"/>
         <v>78.227837628528405</v>
       </c>
       <c r="U9">
-        <f>F9/$R9</f>
+        <f t="shared" si="5"/>
         <v>95.611801545979162</v>
       </c>
       <c r="V9">
-        <f>SUM(E9:F9)/D9</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W9">
-        <f>E9/D9</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X9">
-        <f>F9/D9</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1185,35 +1265,35 @@
         <v>23</v>
       </c>
       <c r="R10">
-        <f>C10*PI()*B10^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
       <c r="S10">
-        <f>D10/$R10</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="T10">
-        <f>E10/$R10</f>
+        <f t="shared" si="5"/>
         <v>78.227837628528405</v>
       </c>
       <c r="U10">
-        <f>F10/$R10</f>
+        <f t="shared" si="5"/>
         <v>95.611801545979162</v>
       </c>
       <c r="V10">
-        <f>SUM(E10:F10)/D10</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W10">
-        <f>E10/D10</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X10">
-        <f>F10/D10</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1261,35 +1341,35 @@
         <v>2900</v>
       </c>
       <c r="R11">
-        <f>C11*PI()*B11^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>9.2038847273138469</v>
       </c>
       <c r="S11">
-        <f>D11/$R11</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="T11">
-        <f>E11/$R11</f>
+        <f t="shared" si="5"/>
         <v>78.227837628528405</v>
       </c>
       <c r="U11">
-        <f>F11/$R11</f>
+        <f t="shared" si="5"/>
         <v>95.611801545979162</v>
       </c>
       <c r="V11">
-        <f>SUM(E11:F11)/D11</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W11">
-        <f>E11/D11</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X11">
-        <f>F11/D11</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -1337,35 +1417,35 @@
         <v>2900</v>
       </c>
       <c r="R12">
-        <f>C12*PI()*B12^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>18.407769454627694</v>
       </c>
       <c r="S12">
-        <f>D12/$R12</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="T12">
-        <f>E12/$R12</f>
+        <f t="shared" si="5"/>
         <v>78.227837628528405</v>
       </c>
       <c r="U12">
-        <f>F12/$R12</f>
+        <f t="shared" si="5"/>
         <v>95.611801545979162</v>
       </c>
       <c r="V12">
-        <f>SUM(E12:F12)/D12</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W12">
-        <f>E12/D12</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X12">
-        <f>F12/D12</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1413,40 +1493,40 @@
         <v>2900</v>
       </c>
       <c r="R13">
-        <f>C13*PI()*B13^2*0.25</f>
+        <f t="shared" si="4"/>
         <v>36.815538909255388</v>
       </c>
       <c r="S13">
-        <f>D13/$R13</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="T13">
-        <f>E13/$R13</f>
+        <f t="shared" si="5"/>
         <v>78.227837628528405</v>
       </c>
       <c r="U13">
-        <f>F13/$R13</f>
+        <f t="shared" si="5"/>
         <v>95.611801545979162</v>
       </c>
       <c r="V13">
-        <f>SUM(E13:F13)/D13</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="W13">
-        <f>E13/D13</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="X13">
-        <f>F13/D13</f>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
@@ -1496,11 +1576,11 @@
         <v>0.70023817685104117</v>
       </c>
       <c r="S16">
-        <f>D16/$R16</f>
+        <f t="shared" ref="S16:T18" si="6">D16/$R16</f>
         <v>0.21421282780460124</v>
       </c>
       <c r="T16">
-        <f>E16/$R16</f>
+        <f t="shared" si="6"/>
         <v>142.80855186973417</v>
       </c>
       <c r="V16">
@@ -1508,7 +1588,7 @@
         <v>666.66666666666674</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1551,11 +1631,11 @@
         <v>4.908738521234052</v>
       </c>
       <c r="S17">
-        <f>D17/$R17</f>
+        <f t="shared" si="6"/>
         <v>8.148733086305042E-2</v>
       </c>
       <c r="T17">
-        <f>E17/$R17</f>
+        <f t="shared" si="6"/>
         <v>152.78874536821951</v>
       </c>
       <c r="V17">
@@ -1563,7 +1643,7 @@
         <v>1875</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1612,11 +1692,11 @@
         <v>0.11504855909142309</v>
       </c>
       <c r="S18">
-        <f>D18/$R18</f>
+        <f t="shared" si="6"/>
         <v>0.43459909793626889</v>
       </c>
       <c r="T18">
-        <f>E18/$R18</f>
+        <f t="shared" si="6"/>
         <v>434.59909793626889</v>
       </c>
       <c r="V18">
@@ -1624,7 +1704,7 @@
         <v>1000</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1661,7 +1741,7 @@
         <v>533.33333333333337</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1695,12 +1775,12 @@
         <v>1000</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E22" t="s">
@@ -1746,7 +1826,7 @@
         <v>428.57142857142861</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1768,7 +1848,7 @@
         <v>800</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1870,7 @@
         <v>800</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1892,7 @@
         <v>800</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1834,12 +1914,12 @@
         <v>800</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
@@ -1894,19 +1974,19 @@
         <v>3600</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30" si="1">C30*PI()*B30^2*0.25</f>
+        <f>C30*PI()*B30^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30" si="2">D30/$R30</f>
+        <f t="shared" ref="S30:T32" si="7">D30/$R30</f>
         <v>0.16976527263135505</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30" si="3">E30/$R30</f>
+        <f t="shared" si="7"/>
         <v>147.01672609875348</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V32" si="4">SUM(E30:F30)/D30</f>
+        <f>SUM(E30:F30)/D30</f>
         <v>866</v>
       </c>
       <c r="Y30">
@@ -1914,7 +1994,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1959,27 +2039,27 @@
         <v>3900</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31" si="5">C31*PI()*B31^2*0.25</f>
+        <f>C31*PI()*B31^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31" si="6">D31/$R31</f>
+        <f t="shared" si="7"/>
         <v>0.17215633280926146</v>
       </c>
       <c r="T31">
-        <f t="shared" ref="T31" si="7">E31/$R31</f>
+        <f t="shared" si="7"/>
         <v>97.555255258581482</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f>SUM(E31:F31)/D31</f>
         <v>566.66666666666663</v>
       </c>
       <c r="Y31">
-        <f t="shared" ref="Y31:Y32" si="8">O31/N31</f>
+        <f>O31/N31</f>
         <v>1.2698412698412698</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2024,27 +2104,27 @@
         <v>3600</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32" si="9">C32*PI()*B32^2*0.25</f>
+        <f>C32*PI()*B32^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32" si="10">D32/$R32</f>
+        <f t="shared" si="7"/>
         <v>1.4147106052612919</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T32" si="11">E32/$R32</f>
+        <f t="shared" si="7"/>
         <v>905.41478736722684</v>
       </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f>SUM(E32:F32)/D32</f>
         <v>640</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="8"/>
+        <f>O32/N32</f>
         <v>30.555555555555557</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,21 +2134,25 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:N15"/>
+  <dimension ref="A4:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -2076,31 +2160,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>88</v>
       </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2112,36 +2199,44 @@
         <v>1.25</v>
       </c>
       <c r="D5">
+        <f>PI() * (C5/2)^2</f>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="E5">
         <v>250</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.05</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I10" si="0">2*PI()*(C5/2)*B5</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J10" si="0">2*PI()*(C5/2)*B5</f>
         <v>0.77772717953554549</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J10" si="1">E5/I5</f>
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="1">F5/J5</f>
         <v>6.4289896657411069E-2</v>
       </c>
-      <c r="L5">
-        <f>D5/I5</f>
+      <c r="N5">
+        <f>E5/J5</f>
         <v>321.44948328705533</v>
       </c>
-      <c r="M5">
-        <f>D5/C5</f>
+      <c r="O5">
+        <f>E5/C5</f>
         <v>200</v>
       </c>
-      <c r="N5">
-        <f>D5/C5^2</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5">
+        <f>E5/D5</f>
+        <v>203.71832715762602</v>
+      </c>
+      <c r="Q5">
+        <f>P5*PI()</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2153,36 +2248,44 @@
         <v>0.625</v>
       </c>
       <c r="D6">
+        <f t="shared" ref="D6:D13" si="2">PI() * (C6/2)^2</f>
+        <v>0.30679615757712825</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.29809763729805244</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>5.031908382756578E-2</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L7" si="2">D6/I6</f>
+      <c r="N6">
+        <f>E6/J6</f>
         <v>50.319083827565777</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M11" si="3">D6/C6</f>
+      <c r="O6">
+        <f t="shared" ref="O6:O11" si="3">E6/C6</f>
         <v>24</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N11" si="4">D6/C6^2</f>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <f t="shared" ref="P6:P11" si="4">E6/D6</f>
+        <v>48.892398517830244</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q11" si="5">P6*PI()</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2194,36 +2297,44 @@
         <v>2.5</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="E7">
         <v>250</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>6.4114180507156515</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>6.2388694175908782E-2</v>
       </c>
-      <c r="L7">
-        <f>D7/I7</f>
+      <c r="N7">
+        <f>E7/J7</f>
         <v>38.992933859942987</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>50.929581789406505</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2234,36 +2345,44 @@
         <v>2.5</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="E9">
         <v>600</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0.28647889756541162</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L8:L11" si="5">D9/I9</f>
+      <c r="N9">
+        <f>E9/J9</f>
         <v>381.9718634205488</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>122.23099629457562</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2275,36 +2394,44 @@
         <v>1.25</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="E10">
         <v>250</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>1.4396850989899801</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>5.2094725473380746E-2</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
+      <c r="N10">
+        <f>E10/J10</f>
         <v>173.64908491126917</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>203.71832715762602</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2316,137 +2443,165 @@
         <v>0.625</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.30679615757712825</v>
+      </c>
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>2*PI()*(C11/2)*B11</f>
         <v>0.29809763729805244</v>
       </c>
-      <c r="J11">
-        <f>E11/I11</f>
+      <c r="K11">
+        <f>F11/J11</f>
         <v>6.7092111770087712E-2</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
+      <c r="N11">
+        <f>E11/J11</f>
         <v>50.319083827565777</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>48.892398517830244</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>86</v>
       </c>
       <c r="C13">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <f>ROUND((((C13-0.625)/0.625*(14-8)+8)*C13)^2/5, 0)*5</f>
-        <v>265</v>
-      </c>
-      <c r="E13" t="s">
+        <f t="shared" si="2"/>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(IF(D13&lt;D11, 25,
+IF(D13&lt;D10, (D13-D11)/(D10-D11)*(300-25)+25,
+IF(C13&lt;C9,  (D13-D10)/(D9-D10)*(800-300)+300,
+ D13/D9*800)))/5, 0)*5</f>
+        <v>2050</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="F14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="E14" t="s">
+    <row r="15" spans="1:17">
+      <c r="F15" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="E15" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2454,50 +2609,496 @@
         <v>1.25</v>
       </c>
       <c r="C3">
+        <v>1.25</v>
+      </c>
+      <c r="D3">
         <f>0.75*2*1.25</f>
         <v>1.875</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3</v>
       </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
       <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>70</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
-      <c r="N3">
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="O3">
         <v>3000</v>
       </c>
-      <c r="P3">
-        <f>C3*PI()*B3^2*0.25</f>
+      <c r="Q3">
+        <f>D3*PI()*B3^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="Q3">
-        <f>D3/$P3</f>
+      <c r="R3">
+        <f>E3/$Q3</f>
         <v>0.17383963917450757</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.03</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5">
+        <v>3400</v>
+      </c>
+      <c r="Q5">
+        <f>((((B5/2)^2)+((B5/2)*(C5/2))+((C5/2)^2))*D5*3.14159265)/3</f>
+        <v>0.23111977177734375</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R13" si="0">E5/$Q5</f>
+        <v>0.12980282807176449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6">
+        <v>3400</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q13" si="1">((((B6/2)^2)+((B6/2)*(C6/2))+((C6/2)^2))*D6*3.14159265)/3</f>
+        <v>3.4279357300781257</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.11668830208519798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>0.625</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7">
+        <v>3400</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>4.2440135083007813E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2.356260172226408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>1.25</v>
+      </c>
+      <c r="C9">
+        <v>0.625</v>
+      </c>
+      <c r="D9">
+        <v>0.995</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>3400</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0.71227841169433592</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.42118362016107358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <v>0.625</v>
+      </c>
+      <c r="D10">
+        <v>0.1875</v>
+      </c>
+      <c r="E10">
+        <v>0.04</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <v>2900</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0.13422331878662111</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.29801081035396848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>0.625</v>
+      </c>
+      <c r="D11">
+        <v>0.6875</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>2900</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0.49215216888427737</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.10159459443885291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>1.25</v>
+      </c>
+      <c r="D12">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="O12">
+        <v>2900</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>3.5936056549804682</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>2.7827204652076248E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>1.25</v>
+      </c>
+      <c r="D13">
+        <v>0.3785</v>
+      </c>
+      <c r="E13">
+        <v>0.08</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>2900</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1.0838085580957031</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>7.381377403087068E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:O15" si="2">SUM(E3:E13)/9</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1.161111111111111</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>61.111111111111114</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>61.111111111111114</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>3133.3333333333335</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(Q3:Q13)/9</f>
+        <v>1.3353927701342605</v>
+      </c>
+      <c r="R15">
+        <f>SUM(R3:R13)/9</f>
+        <v>0.41100232724385782</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>dia</t>
   </si>
@@ -292,24 +292,6 @@
     <t>fuel/T</t>
   </si>
   <si>
-    <t>Calc max force</t>
-  </si>
-  <si>
-    <t>force/vol</t>
-  </si>
-  <si>
-    <t>force/dia</t>
-  </si>
-  <si>
-    <t>&lt;- I agree this is a very weird formula, but it does keep true to stock.</t>
-  </si>
-  <si>
-    <t>Makes sense that the force goes up on the square of the diameter for a fixed length.</t>
-  </si>
-  <si>
-    <t>As you can see, no real agreement in any of the force ratios above.</t>
-  </si>
-  <si>
     <t>noseCone</t>
   </si>
   <si>
@@ -346,29 +328,89 @@
     <t>largeAdapter2</t>
   </si>
   <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>Diameter</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Nose Cones</t>
+  </si>
+  <si>
+    <t>Adapters</t>
+  </si>
+  <si>
+    <t>Trusses</t>
+  </si>
+  <si>
+    <t>trussPiece1x</t>
+  </si>
+  <si>
+    <t>trussPiece3x</t>
+  </si>
+  <si>
+    <t>trussAdapter</t>
+  </si>
+  <si>
+    <t>I-Beams</t>
+  </si>
+  <si>
+    <t>structuralIBeam1</t>
+  </si>
+  <si>
+    <t>structuralIBeam2</t>
+  </si>
+  <si>
+    <t>structuralIBeam3</t>
+  </si>
+  <si>
+    <t>composites</t>
+  </si>
+  <si>
+    <t>Bottom (Width)</t>
+  </si>
+  <si>
+    <t>Top (Depth)</t>
+  </si>
+  <si>
+    <t>Structural Cubes</t>
+  </si>
+  <si>
+    <t>strutCube</t>
+  </si>
+  <si>
+    <t>strutOcto</t>
+  </si>
+  <si>
+    <t>Structural Panels</t>
+  </si>
+  <si>
+    <t>structuralPanel1</t>
+  </si>
+  <si>
+    <t>structuralPanel2</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
   <si>
     <t>force/area</t>
   </si>
   <si>
-    <t>area</t>
+    <t>WetMass</t>
+  </si>
+  <si>
+    <t>TWR Dry</t>
+  </si>
+  <si>
+    <t>TWR Wet</t>
+  </si>
+  <si>
+    <t>Aspect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +442,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -418,25 +480,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -729,31 +830,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="H1" s="2" t="s">
+    <row r="1" spans="1:27">
+      <c r="I1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -763,73 +865,76 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>69</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>83</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>84</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>79</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -842,103 +947,103 @@
       <c r="D4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.7350000000000003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
       <c r="I4">
-        <v>0.15</v>
-      </c>
-      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
       </c>
       <c r="M4">
         <v>50</v>
       </c>
-      <c r="P4">
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
         <v>2900</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f>C4*PI()*B4^2*0.25</f>
         <v>0.10693300305349834</v>
       </c>
-      <c r="S4">
-        <f>D4/$R4</f>
+      <c r="T4">
+        <f>D4/$S4</f>
         <v>0.1402747474743184</v>
       </c>
-      <c r="T4">
-        <f>E4/$R4</f>
+      <c r="U4">
+        <f>F4/$S4</f>
         <v>53.631711784347743</v>
       </c>
-      <c r="U4">
-        <f>F4/$R4</f>
+      <c r="V4">
+        <f>G4/$S4</f>
         <v>65.4615488213486</v>
       </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V13" si="0">SUM(E4:F4)/D4</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W13" si="0">SUM(F4:G4)/D4</f>
         <v>849</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W13" si="1">E4/D4</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X13" si="1">F4/D4</f>
         <v>382.33333333333337</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X13" si="2">F4/D4</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y13" si="2">G4/D4</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="Z4">
-        <f>L4/D4</f>
+      <c r="AA4">
+        <f>M4/D4</f>
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="D5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="V5">
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>887.99999999999989</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="2"/>
         <v>487.99999999999994</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z32" si="3">L5/D5</f>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA32" si="3">M5/D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -951,70 +1056,67 @@
       <c r="D6">
         <v>6.25E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
       <c r="I6">
         <v>0.2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>6</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
       </c>
       <c r="M6">
         <v>50</v>
       </c>
-      <c r="P6">
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
         <v>2900</v>
       </c>
-      <c r="R6">
-        <f t="shared" ref="R6:R13" si="4">C6*PI()*B6^2*0.25</f>
+      <c r="S6">
+        <f t="shared" ref="S6:S13" si="4">C6*PI()*B6^2*0.25</f>
         <v>0.95873799242852575</v>
       </c>
-      <c r="S6">
-        <f t="shared" ref="S6:U13" si="5">D6/$R6</f>
+      <c r="T6">
+        <f t="shared" ref="T6:T13" si="5">D6/$S6</f>
         <v>6.518986469044033E-2</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="5"/>
+      <c r="U6">
+        <f t="shared" ref="U6:V13" si="6">F6/$S6</f>
         <v>46.936702577117039</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
+      <c r="V6">
+        <f t="shared" si="6"/>
         <v>57.367080927587487</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1027,70 +1129,67 @@
       <c r="D7">
         <v>0.125</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>110</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="H7">
-        <v>0.3</v>
-      </c>
       <c r="I7">
         <v>0.2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6</v>
-      </c>
-      <c r="L7">
-        <v>50</v>
       </c>
       <c r="M7">
         <v>50</v>
       </c>
-      <c r="P7">
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
         <v>2900</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="4"/>
         <v>1.3627885319576036</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="5"/>
         <v>9.1723695253321039E-2</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
+      <c r="U7">
+        <f t="shared" si="6"/>
         <v>66.041060582391154</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
+      <c r="V7">
+        <f t="shared" si="6"/>
         <v>80.716851822922521</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1103,70 +1202,67 @@
       <c r="D8">
         <v>0.25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>180</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>220</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
-      <c r="P8">
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>2900</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="4"/>
         <v>2.304885900799146</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="5"/>
         <v>0.10846523895752082</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="5"/>
+      <c r="U8">
+        <f t="shared" si="6"/>
         <v>78.094972049414991</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
+      <c r="V8">
+        <f t="shared" si="6"/>
         <v>95.449410282618317</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1179,70 +1275,67 @@
       <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>360</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>440</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
       <c r="I9">
         <v>0.2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
       </c>
       <c r="M9">
         <v>50</v>
       </c>
-      <c r="P9">
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
         <v>2900</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
+      <c r="U9">
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
+      <c r="V9">
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1255,49 +1348,52 @@
       <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>360</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>440</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="R10">
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
+      <c r="U10">
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
+      <c r="V10">
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1310,70 +1406,67 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>720</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>880</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>0.3</v>
-      </c>
       <c r="I11">
         <v>0.2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6</v>
-      </c>
-      <c r="L11">
-        <v>200</v>
       </c>
       <c r="M11">
         <v>200</v>
       </c>
-      <c r="P11">
+      <c r="N11">
+        <v>200</v>
+      </c>
+      <c r="Q11">
         <v>2900</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="4"/>
         <v>9.2038847273138469</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
+      <c r="U11">
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
+      <c r="V11">
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1386,70 +1479,67 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1440</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1760</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
       <c r="I12">
         <v>0.2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6</v>
-      </c>
-      <c r="L12">
-        <v>200</v>
       </c>
       <c r="M12">
         <v>200</v>
       </c>
-      <c r="P12">
+      <c r="N12">
+        <v>200</v>
+      </c>
+      <c r="Q12">
         <v>2900</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="4"/>
         <v>18.407769454627694</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
+      <c r="U12">
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
+      <c r="V12">
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1462,81 +1552,78 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2880</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3520</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
       <c r="I13">
         <v>0.2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6</v>
-      </c>
-      <c r="L13">
-        <v>200</v>
       </c>
       <c r="M13">
         <v>200</v>
       </c>
-      <c r="P13">
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="Q13">
         <v>2900</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="4"/>
         <v>36.815538909255388</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="5"/>
+      <c r="U13">
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
+      <c r="V13">
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1550,49 +1637,46 @@
       <c r="D16">
         <v>0.15</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>100</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
       <c r="I16">
         <v>0.2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2900</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f>C16*PI()*B16^2*0.25</f>
         <v>0.70023817685104117</v>
       </c>
-      <c r="S16">
-        <f t="shared" ref="S16:T18" si="6">D16/$R16</f>
+      <c r="T16">
+        <f>D16/$S16</f>
         <v>0.21421282780460124</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="6"/>
+      <c r="U16">
+        <f>F16/$S16</f>
         <v>142.80855186973417</v>
       </c>
-      <c r="V16">
-        <f>SUM(E16:F16)/D16</f>
+      <c r="W16">
+        <f>SUM(F16:G16)/D16</f>
         <v>666.66666666666674</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1605,49 +1689,46 @@
       <c r="D17">
         <v>0.4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>750</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>28</v>
       </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
       <c r="I17">
         <v>0.2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2900</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f>C17*PI()*B17^2*0.25</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
+      <c r="T17">
+        <f>D17/$S17</f>
         <v>8.148733086305042E-2</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="6"/>
+      <c r="U17">
+        <f>F17/$S17</f>
         <v>152.78874536821951</v>
       </c>
-      <c r="V17">
-        <f>SUM(E17:F17)/D17</f>
+      <c r="W17">
+        <f>SUM(F17:G17)/D17</f>
         <v>1875</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1660,137 +1741,128 @@
       <c r="D18">
         <v>0.05</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>24</v>
       </c>
-      <c r="H18">
-        <v>0.2</v>
-      </c>
       <c r="I18">
         <v>0.2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>12</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
       </c>
       <c r="M18">
         <v>50</v>
       </c>
-      <c r="P18">
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
         <v>2900</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f>C18*PI()*B18^2*0.25</f>
         <v>0.11504855909142309</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
+      <c r="T18">
+        <f>D18/$S18</f>
         <v>0.43459909793626889</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="6"/>
+      <c r="U18">
+        <f>F18/$S18</f>
         <v>434.59909793626889</v>
       </c>
-      <c r="V18">
-        <f>SUM(E18:F18)/D18</f>
+      <c r="W18">
+        <f>SUM(F18:G18)/D18</f>
         <v>1000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="D19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>26</v>
       </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
       <c r="I19">
         <v>0.2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>12</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2900</v>
       </c>
-      <c r="V19">
-        <f>SUM(E19:F19)/D19</f>
+      <c r="W19">
+        <f>SUM(F19:G19)/D19</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="D20">
         <v>0.15</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>150</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>41</v>
       </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
       <c r="I20">
         <v>0.2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>12</v>
       </c>
-      <c r="V20">
-        <f>SUM(E20:F20)/D20</f>
+      <c r="W20">
+        <f>SUM(F20:G20)/D20</f>
         <v>1000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1803,136 +1875,145 @@
       <c r="D23">
         <v>0.35</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>150</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="R23">
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+      <c r="S23">
         <f>C23*PI()*B23^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="S23">
-        <f>D23/$R23</f>
+      <c r="T23">
+        <f>D23/$S23</f>
         <v>0.15210968427769411</v>
       </c>
-      <c r="T23">
-        <f>E23/$R23</f>
+      <c r="U23">
+        <f>F23/$S23</f>
         <v>65.189864690440331</v>
       </c>
-      <c r="V23">
-        <f>SUM(E23:F23)/D23</f>
+      <c r="W23">
+        <f>SUM(F23:G23)/D23</f>
         <v>428.57142857142861</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>160</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>34</v>
       </c>
-      <c r="V24">
-        <f>SUM(E24:F24)/D24</f>
+      <c r="W24">
+        <f>SUM(F24:G24)/D24</f>
         <v>800</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>80</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>34</v>
       </c>
-      <c r="V25">
-        <f>SUM(E25:F25)/D25</f>
+      <c r="W25">
+        <f>SUM(F25:G25)/D25</f>
         <v>800</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
         <v>0.3</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>240</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>37</v>
       </c>
-      <c r="V26">
-        <f>SUM(E26:F26)/D26</f>
+      <c r="W26">
+        <f>SUM(F26:G26)/D26</f>
         <v>800</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="D27">
         <v>0.2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>160</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>37</v>
       </c>
-      <c r="V27">
-        <f>SUM(E27:F27)/D27</f>
+      <c r="W27">
+        <f>SUM(F27:G27)/D27</f>
         <v>800</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>75</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>81</v>
       </c>
+      <c r="X29" t="s">
+        <v>57</v>
+      </c>
       <c r="Y29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>122</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1947,58 +2028,67 @@
         <v>0.5</v>
       </c>
       <c r="E30">
+        <f>D30+F30*0.0075</f>
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="F30">
         <v>433</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.3</v>
       </c>
-      <c r="I30">
-        <v>0.2</v>
-      </c>
-      <c r="J30">
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>7</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>250</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>550</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3600</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f>C30*PI()*B30^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="S30">
-        <f t="shared" ref="S30:T32" si="7">D30/$R30</f>
+      <c r="T30">
+        <f>D30/$S30</f>
         <v>0.16976527263135505</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="7"/>
+      <c r="U30">
+        <f>F30/$S30</f>
         <v>147.01672609875348</v>
       </c>
-      <c r="V30">
-        <f>SUM(E30:F30)/D30</f>
+      <c r="W30">
+        <f>SUM(F30:G30)/D30</f>
         <v>866</v>
       </c>
+      <c r="X30">
+        <f>(P30*E30)/O30</f>
+        <v>8.2445000000000004</v>
+      </c>
       <c r="Y30">
-        <f>O30/N30</f>
-        <v>2.2000000000000002</v>
+        <f>O30/E30</f>
+        <v>66.711140760507007</v>
       </c>
       <c r="Z30">
+        <f>O30/D30</f>
+        <v>500</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2012,58 +2102,67 @@
         <v>1.5</v>
       </c>
       <c r="E31">
+        <f t="shared" ref="E31:E32" si="7">D31+F31*0.0075</f>
+        <v>7.875</v>
+      </c>
+      <c r="F31">
         <v>850</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>45</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.3</v>
       </c>
-      <c r="I31">
-        <v>0.2</v>
-      </c>
-      <c r="J31">
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>7</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>315</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>400</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3900</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f>C31*PI()*B31^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="7"/>
+      <c r="T31">
+        <f>D31/$S31</f>
         <v>0.17215633280926146</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="7"/>
+      <c r="U31">
+        <f>F31/$S31</f>
         <v>97.555255258581482</v>
       </c>
-      <c r="V31">
-        <f>SUM(E31:F31)/D31</f>
+      <c r="W31">
+        <f>SUM(F31:G31)/D31</f>
         <v>566.66666666666663</v>
       </c>
+      <c r="X31">
+        <f>(P31*E31)/O31</f>
+        <v>10</v>
+      </c>
       <c r="Y31">
-        <f>O31/N31</f>
-        <v>1.2698412698412698</v>
+        <f t="shared" ref="Y31:Y32" si="8">O31/E31</f>
+        <v>40</v>
       </c>
       <c r="Z31">
+        <f>O31/D31</f>
+        <v>210</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2077,61 +2176,70 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E32">
+        <f t="shared" si="7"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>45</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.3</v>
       </c>
-      <c r="I32">
-        <v>0.2</v>
-      </c>
-      <c r="J32">
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>7</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>18</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>550</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>3600</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f>C32*PI()*B32^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="7"/>
+      <c r="T32">
+        <f>D32/$S32</f>
         <v>1.4147106052612919</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="7"/>
+      <c r="U32">
+        <f>F32/$S32</f>
         <v>905.41478736722684</v>
       </c>
-      <c r="V32">
-        <f>SUM(E32:F32)/D32</f>
+      <c r="W32">
+        <f>SUM(F32:G32)/D32</f>
         <v>640</v>
       </c>
+      <c r="X32">
+        <f>(P32*E32)/O32</f>
+        <v>2.2152777777777777</v>
+      </c>
       <c r="Y32">
-        <f>O32/N32</f>
-        <v>30.555555555555557</v>
+        <f t="shared" si="8"/>
+        <v>248.27586206896552</v>
       </c>
       <c r="Z32">
+        <f>O32/D32</f>
+        <v>1440</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2144,372 +2252,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:Q15"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:17">
-      <c r="B4" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B5">
+      <c r="B2">
         <f>0.0650517+0.1329949</f>
         <v>0.19804660000000002</v>
       </c>
-      <c r="C5">
+      <c r="C2">
         <v>1.25</v>
       </c>
-      <c r="D5">
-        <f>PI() * (C5/2)^2</f>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">2*PI()*(C2/2)*B2</f>
+        <v>0.77772717953554549</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">E2/I2</f>
+        <v>6.4289896657411069E-2</v>
+      </c>
+      <c r="L2">
+        <f>PI()*(C2/2)^2</f>
         <v>1.227184630308513</v>
       </c>
-      <c r="E5">
-        <v>250</v>
-      </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J10" si="0">2*PI()*(C5/2)*B5</f>
-        <v>0.77772717953554549</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K10" si="1">F5/J5</f>
-        <v>6.4289896657411069E-2</v>
-      </c>
-      <c r="N5">
-        <f>E5/J5</f>
-        <v>321.44948328705533</v>
-      </c>
-      <c r="O5">
-        <f>E5/C5</f>
-        <v>200</v>
-      </c>
-      <c r="P5">
-        <f>E5/D5</f>
+      <c r="M2">
+        <f>D2/L2</f>
         <v>203.71832715762602</v>
       </c>
-      <c r="Q5">
-        <f>P5*PI()</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B6">
+      <c r="B3">
         <f>0.07590994+0.07590994</f>
         <v>0.15181987999999999</v>
       </c>
+      <c r="C3">
+        <v>0.625</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <f>2*PI()*(C3/2)*B3</f>
+        <v>0.29809763729805244</v>
+      </c>
+      <c r="J3">
+        <f>E3/I3</f>
+        <v>5.031908382756578E-2</v>
+      </c>
+      <c r="L3">
+        <f>PI()*(C3/2)^2</f>
+        <v>0.30679615757712825</v>
+      </c>
+      <c r="M3">
+        <f>D3/L3</f>
+        <v>48.892398517830244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f>0.4508572+0.3654699</f>
+        <v>0.81632710000000008</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <f>2*PI()*(C4/2)*B4</f>
+        <v>6.4114180507156515</v>
+      </c>
+      <c r="J4">
+        <f>E4/I4</f>
+        <v>6.2388694175908782E-2</v>
+      </c>
+      <c r="L4">
+        <f>PI()*(C4/2)^2</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="M4">
+        <f>D4/L4</f>
+        <v>50.929581789406505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <f>0.07590994*2</f>
+        <v>0.15181987999999999</v>
+      </c>
       <c r="C6">
         <v>0.625</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D13" si="2">PI() * (C6/2)^2</f>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <f>2*PI()*(C6/2)*B6</f>
+        <v>0.29809763729805244</v>
+      </c>
+      <c r="J6">
+        <f>E6/I6</f>
+        <v>6.7092111770087712E-2</v>
+      </c>
+      <c r="L6">
+        <f>PI()*(C6/2)^2</f>
         <v>0.30679615757712825</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.29809763729805244</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>5.031908382756578E-2</v>
-      </c>
-      <c r="N6">
-        <f>E6/J6</f>
-        <v>50.319083827565777</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O11" si="3">E6/C6</f>
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ref="P6:P11" si="4">E6/D6</f>
+      <c r="M6">
+        <f>D6/L6</f>
         <v>48.892398517830244</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q11" si="5">P6*PI()</f>
-        <v>153.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <f>0.4508572+0.3654699</f>
-        <v>0.81632710000000008</v>
-      </c>
-      <c r="C7">
-        <v>2.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>4.908738521234052</v>
-      </c>
-      <c r="E7">
-        <v>250</v>
-      </c>
-      <c r="F7">
-        <v>0.4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>6.4114180507156515</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>6.2388694175908782E-2</v>
-      </c>
-      <c r="N7">
-        <f>E7/J7</f>
-        <v>38.992933859942987</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
-        <v>50.929581789406505</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>2.5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>4.908738521234052</v>
-      </c>
-      <c r="E9">
-        <v>600</v>
-      </c>
-      <c r="F9">
-        <v>0.45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.28647889756541162</v>
-      </c>
-      <c r="N9">
-        <f>E9/J9</f>
-        <v>381.9718634205488</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>122.23099629457562</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10">
         <f>0.1833064*2</f>
         <v>0.36661280000000002</v>
       </c>
-      <c r="C10">
+      <c r="C7">
         <v>1.25</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="E10">
+      <c r="D7">
         <v>250</v>
       </c>
-      <c r="F10">
+      <c r="E7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="J10">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>1.4396850989899801</v>
       </c>
-      <c r="K10">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>5.2094725473380746E-2</v>
       </c>
-      <c r="N10">
-        <f>E10/J10</f>
-        <v>173.64908491126917</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
+      <c r="L7">
+        <f t="shared" ref="L7" si="2">PI()*(C7/2)^2</f>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7" si="3">D7/L7</f>
         <v>203.71832715762602</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11">
-        <f>0.07590994*2</f>
-        <v>0.15181987999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.625</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.30679615757712825</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0.02</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>0.45</v>
+      </c>
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="J11">
-        <f>2*PI()*(C11/2)*B11</f>
-        <v>0.29809763729805244</v>
-      </c>
-      <c r="K11">
-        <f>F11/J11</f>
-        <v>6.7092111770087712E-2</v>
-      </c>
-      <c r="N11">
-        <f>E11/J11</f>
-        <v>50.319083827565777</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>48.892398517830244</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>153.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>12.566370614359172</v>
-      </c>
-      <c r="E13">
-        <f>ROUND(IF(D13&lt;D11, 25,
-IF(D13&lt;D10, (D13-D11)/(D10-D11)*(300-25)+25,
-IF(C13&lt;C9,  (D13-D10)/(D9-D10)*(800-300)+300,
- D13/D9*800)))/5, 0)*5</f>
-        <v>2050</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="F15" t="s">
-        <v>91</v>
+      <c r="I8">
+        <f>2*PI()*(C8/2)*B8</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J8">
+        <f>E8/I8</f>
+        <v>0.28647889756541162</v>
+      </c>
+      <c r="L8">
+        <f>PI()*(C8/2)^2</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="M8">
+        <f>D8/L8</f>
+        <v>122.23099629457562</v>
       </c>
     </row>
   </sheetData>
@@ -2524,39 +2522,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -2600,492 +2601,974 @@
       <c r="R2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
         <v>1.25</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1.25</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <f>0.75*2*1.25</f>
         <v>1.875</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G3">
-        <v>0.3</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>70</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>3000</v>
       </c>
-      <c r="Q3">
-        <f>D3*PI()*B3^2*0.25</f>
+      <c r="Q4">
+        <f>D4*PI()*B4^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="R3">
-        <f>E3/$Q3</f>
+      <c r="R4">
+        <f>E4/$Q4</f>
         <v>0.17383963917450757</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
         <v>1.25</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="3">
         <v>0.56499999999999995</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>0.03</v>
       </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5">
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>0.5</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5">
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7">
         <v>3400</v>
       </c>
-      <c r="Q5">
-        <f>((((B5/2)^2)+((B5/2)*(C5/2))+((C5/2)^2))*D5*3.14159265)/3</f>
+      <c r="Q7">
+        <f>((((B7/2)^2)+((B7/2)*(C7/2))+((C7/2)^2))*D7*3.14159265)/3</f>
         <v>0.23111977177734375</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R13" si="0">E5/$Q5</f>
+      <c r="R7">
+        <f t="shared" ref="R7:R34" si="0">E7/$Q7</f>
         <v>0.12980282807176449</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
         <v>2.5</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="3">
         <v>2.0950000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0.4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6">
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8">
         <v>3400</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q13" si="1">((((B6/2)^2)+((B6/2)*(C6/2))+((C6/2)^2))*D6*3.14159265)/3</f>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q17" si="1">((((B8/2)^2)+((B8/2)*(C8/2))+((C8/2)^2))*D8*3.14159265)/3</f>
         <v>3.4279357300781257</v>
       </c>
-      <c r="R6">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>0.11668830208519798</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
         <v>0.625</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7">
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>0.25</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7">
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9">
         <v>3400</v>
       </c>
-      <c r="Q7">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>4.2440135083007813E-2</v>
       </c>
-      <c r="R7">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>2.356260172226408</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
         <v>1.25</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>0.625</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>0.995</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>0.3</v>
       </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9">
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12">
         <v>0.1</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9">
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12">
         <v>3400</v>
       </c>
-      <c r="Q9">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>0.71227841169433592</v>
       </c>
-      <c r="R9">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>0.42118362016107358</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10">
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
         <v>1.25</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>0.625</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>0.1875</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>0.04</v>
       </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>0.2</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="O10">
+      <c r="O13">
         <v>2900</v>
       </c>
-      <c r="Q10">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>0.13422331878662111</v>
       </c>
-      <c r="R10">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>0.29801081035396848</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
         <v>1.25</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>0.625</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>0.6875</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>0.05</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="J11">
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="O11">
+      <c r="O14">
         <v>2900</v>
       </c>
-      <c r="Q11">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>0.49215216888427737</v>
       </c>
-      <c r="R11">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>0.10159459443885291</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
         <v>2.5</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>1.25</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>1.2549999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
         <v>0.3</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="K12">
+      <c r="K15">
         <v>200</v>
       </c>
-      <c r="L12">
+      <c r="L15">
         <v>200</v>
       </c>
-      <c r="O12">
+      <c r="O15">
         <v>2900</v>
       </c>
-      <c r="Q12">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>3.5936056549804682</v>
       </c>
-      <c r="R12">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>2.7827204652076248E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
         <v>2.5</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>1.25</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>0.3785</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>0.08</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G13">
-        <v>0.2</v>
-      </c>
-      <c r="H13">
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="K16">
         <v>200</v>
       </c>
-      <c r="L13">
+      <c r="L16">
         <v>200</v>
       </c>
-      <c r="O13">
+      <c r="O16">
         <v>2900</v>
       </c>
-      <c r="Q13">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>1.0838085580957031</v>
       </c>
-      <c r="R13">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>7.381377403087068E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>1.25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D17">
+        <v>1.06</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>80</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>5000</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77987197012895637</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32056543839966584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D20">
+        <v>1.1185</v>
+      </c>
+      <c r="E20">
+        <v>0.125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+      <c r="O20">
+        <v>5000</v>
+      </c>
+      <c r="Q20">
+        <f>B20*C20*D20</f>
+        <v>0.47986446250000009</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0.26049022123616827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D21">
+        <v>2.9504999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.375</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
+      <c r="O21">
+        <v>5000</v>
+      </c>
+      <c r="Q21">
+        <f>B21*C21*D21</f>
+        <v>1.2658382625000002</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0.29624637768444761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D24">
+        <v>1.0575000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.08</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>200</v>
+      </c>
+      <c r="L24">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>3200</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
         <v>107</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15:O15" si="2">SUM(E3:E13)/9</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="G15">
+      <c r="B25" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>3.1964999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.375</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+      <c r="K25">
+        <v>200</v>
+      </c>
+      <c r="L25">
+        <v>200</v>
+      </c>
+      <c r="O25">
+        <v>3200</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>1.605</v>
+      </c>
+      <c r="E26">
+        <v>0.1875</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>200</v>
+      </c>
+      <c r="L26">
+        <v>200</v>
+      </c>
+      <c r="O26">
+        <v>3200</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="D29">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29">
+        <v>3000</v>
+      </c>
+      <c r="Q29">
+        <f>B29*C29*D29</f>
+        <v>1.1902937499999999E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4012874973089638E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30">
+        <v>3000</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>6.6908999999999996E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4945672480533263E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33">
+        <v>0.2</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>80</v>
+      </c>
+      <c r="K33">
+        <v>200</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>3200</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q34" si="2">B33*C33*D33</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>80</v>
+      </c>
+      <c r="K34">
+        <v>200</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="O34">
+        <v>3200</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>1.161111111111111</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>61.111111111111114</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>61.111111111111114</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>3133.3333333333335</v>
-      </c>
-      <c r="Q15">
-        <f>SUM(Q3:Q13)/9</f>
-        <v>1.3353927701342605</v>
-      </c>
-      <c r="R15">
-        <f>SUM(R3:R13)/9</f>
-        <v>0.41100232724385782</v>
+        <v>0.22</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
       </c>
     </row>
   </sheetData>
@@ -3095,6 +3578,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
   <si>
     <t>dia</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Aspect</t>
+  </si>
+  <si>
+    <t>SRBs - RF Stock</t>
   </si>
 </sst>
 </file>
@@ -830,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2236,12 +2239,256 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="U34" t="s">
+        <v>81</v>
+      </c>
+      <c r="X34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1.25</v>
+      </c>
+      <c r="C35">
+        <f>2.4</f>
+        <v>2.4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="E35">
+        <f>D35+F35*0.0075</f>
+        <v>13.83625</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1824</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>0.3</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>250</v>
+      </c>
+      <c r="P35" s="1">
+        <v>215</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2220</v>
+      </c>
+      <c r="S35">
+        <f>C35*PI()*B35^2*0.25</f>
+        <v>2.9452431127404308</v>
+      </c>
+      <c r="T35">
+        <f>D35/$S35</f>
+        <v>5.3051647697298449E-2</v>
+      </c>
+      <c r="U35">
+        <f>F35/$S35</f>
+        <v>619.30371455918316</v>
+      </c>
+      <c r="W35">
+        <f>SUM(F35:G35)/D35</f>
+        <v>11673.6</v>
+      </c>
+      <c r="X35">
+        <f>(P35*E35)/O35</f>
+        <v>11.899175</v>
+      </c>
+      <c r="Y35">
+        <f>O35/E35</f>
+        <v>18.068479537446922</v>
+      </c>
+      <c r="Z35">
+        <f>O35/D35</f>
+        <v>1600</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35:AA37" si="9">M35/D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>1.25</v>
+      </c>
+      <c r="C36">
+        <v>7.1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E37" si="10">D36+F36*0.0075</f>
+        <v>27.326249999999998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3581</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>315</v>
+      </c>
+      <c r="P36" s="1">
+        <v>187</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1996</v>
+      </c>
+      <c r="S36">
+        <f>C36*PI()*B36^2*0.25</f>
+        <v>8.7130108751904416</v>
+      </c>
+      <c r="T36">
+        <f>D36/$S36</f>
+        <v>5.3798854002894199E-2</v>
+      </c>
+      <c r="U36">
+        <f>F36/$S36</f>
+        <v>410.99455185997681</v>
+      </c>
+      <c r="W36">
+        <f>SUM(F36:G36)/D36</f>
+        <v>7639.4666666666662</v>
+      </c>
+      <c r="X36">
+        <f>(P36*E36)/O36</f>
+        <v>16.222249999999999</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ref="Y36:Y37" si="11">O36/E36</f>
+        <v>11.527377521613834</v>
+      </c>
+      <c r="Z36">
+        <f>O36/D36</f>
+        <v>672</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0.15</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="10"/>
+        <v>0.25890625</v>
+      </c>
+      <c r="F37" s="1">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>18</v>
+      </c>
+      <c r="P37">
+        <v>550</v>
+      </c>
+      <c r="Q37">
+        <v>3600</v>
+      </c>
+      <c r="S37">
+        <f>C37*PI()*B37^2*0.25</f>
+        <v>8.8357293382212935E-3</v>
+      </c>
+      <c r="T37">
+        <f>D37/$S37</f>
+        <v>0.44209706414415373</v>
+      </c>
+      <c r="U37">
+        <f>F37/$S37</f>
+        <v>3848.0128463107139</v>
+      </c>
+      <c r="W37">
+        <f>SUM(F37:G37)/D37</f>
+        <v>8704</v>
+      </c>
+      <c r="X37">
+        <f>(P37*E37)/O37</f>
+        <v>7.9110243055555554</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>69.523234761617374</v>
+      </c>
+      <c r="Z37">
+        <f>O37/D37</f>
+        <v>4608</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -31,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Chris Wood</author>
+  </authors>
+  <commentList>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Wood:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ie: match up a tank to closely match the container and not the superstructure</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>dia</t>
   </si>
@@ -407,13 +441,40 @@
   </si>
   <si>
     <t>SRBs - RF Stock</t>
+  </si>
+  <si>
+    <t>Xenon</t>
+  </si>
+  <si>
+    <t>PartName</t>
+  </si>
+  <si>
+    <t>PB-X150</t>
+  </si>
+  <si>
+    <t>xenonTank</t>
+  </si>
+  <si>
+    <t>ionPropulsion</t>
+  </si>
+  <si>
+    <t>PB-X150R</t>
+  </si>
+  <si>
+    <t>xenonTankRadial</t>
+  </si>
+  <si>
+    <t>^ - Bag Only</t>
+  </si>
+  <si>
+    <t>&lt;-- see note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +525,19 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -833,1662 +907,1818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="I1" s="5" t="s">
+    <row r="1" spans="1:28">
+      <c r="J1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>84</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.625</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.34854740000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.7350000000000003</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4">
-        <v>0.2</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
-      <c r="Q4">
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="R4">
         <v>2900</v>
       </c>
-      <c r="S4">
-        <f>C4*PI()*B4^2*0.25</f>
+      <c r="T4">
+        <f>D4*PI()*C4^2*0.25</f>
         <v>0.10693300305349834</v>
       </c>
-      <c r="T4">
-        <f>D4/$S4</f>
+      <c r="U4">
+        <f>E4/$T4</f>
         <v>0.1402747474743184</v>
       </c>
-      <c r="U4">
-        <f>F4/$S4</f>
+      <c r="V4">
+        <f>G4/$T4</f>
         <v>53.631711784347743</v>
       </c>
-      <c r="V4">
-        <f>G4/$S4</f>
+      <c r="W4">
+        <f>H4/$T4</f>
         <v>65.4615488213486</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W13" si="0">SUM(F4:G4)/D4</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X13" si="0">SUM(G4:H4)/E4</f>
         <v>849</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X13" si="1">F4/D4</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y13" si="1">G4/E4</f>
         <v>382.33333333333337</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y13" si="2">G4/D4</f>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z13" si="2">H4/E4</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="AA4">
-        <f>M4/D4</f>
+      <c r="AB4">
+        <f>N4/E4</f>
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12.2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-      <c r="W5">
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="0"/>
         <v>887.99999999999989</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="2"/>
         <v>487.99999999999994</v>
       </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA32" si="3">M5/D5</f>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB37" si="3">N5/E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.25</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.78125</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6.25E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6</v>
-      </c>
-      <c r="M6">
-        <v>50</v>
       </c>
       <c r="N6">
         <v>50</v>
       </c>
-      <c r="Q6">
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="R6">
         <v>2900</v>
       </c>
-      <c r="S6">
-        <f t="shared" ref="S6:S13" si="4">C6*PI()*B6^2*0.25</f>
+      <c r="T6">
+        <f t="shared" ref="T6:T13" si="4">D6*PI()*C6^2*0.25</f>
         <v>0.95873799242852575</v>
       </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T13" si="5">D6/$S6</f>
+      <c r="U6">
+        <f t="shared" ref="U6:U13" si="5">E6/$T6</f>
         <v>6.518986469044033E-2</v>
       </c>
-      <c r="U6">
-        <f t="shared" ref="U6:V13" si="6">F6/$S6</f>
+      <c r="V6">
+        <f t="shared" ref="V6:W13" si="6">G6/$T6</f>
         <v>46.936702577117039</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="6"/>
         <v>57.367080927587487</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1.25</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.1105</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.125</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>110</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6</v>
-      </c>
-      <c r="M7">
-        <v>50</v>
       </c>
       <c r="N7">
         <v>50</v>
       </c>
-      <c r="Q7">
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="R7">
         <v>2900</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="4"/>
         <v>1.3627885319576036</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="5"/>
         <v>9.1723695253321039E-2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="6"/>
         <v>66.041060582391154</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="6"/>
         <v>80.716851822922521</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1.25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.87819</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.25</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>180</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>220</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
-      <c r="Q8">
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="R8">
         <v>2900</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="4"/>
         <v>2.304885900799146</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="5"/>
         <v>0.10846523895752082</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="6"/>
         <v>78.094972049414991</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="6"/>
         <v>95.449410282618317</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.25</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.75</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>360</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>440</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
-        <v>0.2</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6</v>
-      </c>
-      <c r="M9">
-        <v>50</v>
       </c>
       <c r="N9">
         <v>50</v>
       </c>
-      <c r="Q9">
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="R9">
         <v>2900</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.5</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.9375</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>360</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>440</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
-      <c r="S10">
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="4"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.5</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.875</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>720</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>880</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6</v>
-      </c>
-      <c r="M11">
-        <v>200</v>
       </c>
       <c r="N11">
         <v>200</v>
       </c>
-      <c r="Q11">
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="R11">
         <v>2900</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="4"/>
         <v>9.2038847273138469</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2.5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3.75</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1440</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1760</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="I12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6</v>
-      </c>
-      <c r="M12">
-        <v>200</v>
       </c>
       <c r="N12">
         <v>200</v>
       </c>
-      <c r="Q12">
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="R12">
         <v>2900</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="4"/>
         <v>18.407769454627694</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2.5</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7.5</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2880</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3520</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="I13">
-        <v>0.2</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6</v>
-      </c>
-      <c r="M13">
-        <v>200</v>
       </c>
       <c r="N13">
         <v>200</v>
       </c>
-      <c r="Q13">
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="R13">
         <v>2900</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="4"/>
         <v>36.815538909255388</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B15" s="1"/>
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1.25</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f>2*0.2853027</f>
         <v>0.57060540000000004</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.15</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>100</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="I16">
-        <v>0.2</v>
-      </c>
-      <c r="K16">
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>12</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2900</v>
       </c>
-      <c r="S16">
-        <f>C16*PI()*B16^2*0.25</f>
+      <c r="T16">
+        <f>D16*PI()*C16^2*0.25</f>
         <v>0.70023817685104117</v>
       </c>
-      <c r="T16">
-        <f>D16/$S16</f>
+      <c r="U16">
+        <f>E16/$T16</f>
         <v>0.21421282780460124</v>
       </c>
-      <c r="U16">
-        <f>F16/$S16</f>
+      <c r="V16">
+        <f>G16/$T16</f>
         <v>142.80855186973417</v>
       </c>
-      <c r="W16">
-        <f>SUM(F16:G16)/D16</f>
+      <c r="X16">
+        <f>SUM(G16:H16)/E16</f>
         <v>666.66666666666674</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2.5</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>750</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>12</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2900</v>
       </c>
-      <c r="S17">
-        <f>C17*PI()*B17^2*0.25</f>
+      <c r="T17">
+        <f>D17*PI()*C17^2*0.25</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="T17">
-        <f>D17/$S17</f>
+      <c r="U17">
+        <f>E17/$T17</f>
         <v>8.148733086305042E-2</v>
       </c>
-      <c r="U17">
-        <f>F17/$S17</f>
+      <c r="V17">
+        <f>G17/$T17</f>
         <v>152.78874536821951</v>
       </c>
-      <c r="W17">
-        <f>SUM(F17:G17)/D17</f>
+      <c r="X17">
+        <f>SUM(G17:H17)/E17</f>
         <v>1875</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.625</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.375</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.05</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>12</v>
-      </c>
-      <c r="M18">
-        <v>50</v>
       </c>
       <c r="N18">
         <v>50</v>
       </c>
-      <c r="Q18">
+      <c r="O18">
+        <v>50</v>
+      </c>
+      <c r="R18">
         <v>2900</v>
       </c>
-      <c r="S18">
-        <f>C18*PI()*B18^2*0.25</f>
+      <c r="T18">
+        <f>D18*PI()*C18^2*0.25</f>
         <v>0.11504855909142309</v>
       </c>
-      <c r="T18">
-        <f>D18/$S18</f>
+      <c r="U18">
+        <f>E18/$T18</f>
         <v>0.43459909793626889</v>
       </c>
-      <c r="U18">
-        <f>F18/$S18</f>
+      <c r="V18">
+        <f>G18/$T18</f>
         <v>434.59909793626889</v>
       </c>
-      <c r="W18">
-        <f>SUM(F18:G18)/D18</f>
+      <c r="X18">
+        <f>SUM(G18:H18)/E18</f>
         <v>1000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="I19">
-        <v>0.2</v>
-      </c>
-      <c r="K19">
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>12</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2900</v>
       </c>
-      <c r="W19">
-        <f>SUM(F19:G19)/D19</f>
+      <c r="X19">
+        <f>SUM(G19:H19)/E19</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.15</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>150</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-      <c r="I20">
-        <v>0.2</v>
-      </c>
-      <c r="K20">
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>12</v>
       </c>
-      <c r="W20">
-        <f>SUM(F20:G20)/D20</f>
+      <c r="X20">
+        <f>SUM(G20:H20)/E20</f>
         <v>1000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B22" s="1"/>
+      <c r="G22" t="s">
         <v>2</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1.25</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.875</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.35</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>150</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="I23">
-        <v>0.2</v>
-      </c>
-      <c r="S23">
-        <f>C23*PI()*B23^2*0.25</f>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="T23">
+        <f>D23*PI()*C23^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="T23">
-        <f>D23/$S23</f>
+      <c r="U23">
+        <f>E23/$T23</f>
         <v>0.15210968427769411</v>
       </c>
-      <c r="U23">
-        <f>F23/$S23</f>
+      <c r="V23">
+        <f>G23/$T23</f>
         <v>65.189864690440331</v>
       </c>
-      <c r="W23">
-        <f>SUM(F23:G23)/D23</f>
+      <c r="X23">
+        <f>SUM(G23:H23)/E23</f>
         <v>428.57142857142861</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="D24">
-        <v>0.2</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
         <v>160</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="W24">
-        <f>SUM(F24:G24)/D24</f>
+      <c r="X24">
+        <f>SUM(G24:H24)/E24</f>
         <v>800</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.1</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>80</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>34</v>
       </c>
-      <c r="W25">
-        <f>SUM(F25:G25)/D25</f>
+      <c r="X25">
+        <f>SUM(G25:H25)/E25</f>
         <v>800</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>240</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>37</v>
       </c>
-      <c r="W26">
-        <f>SUM(F26:G26)/D26</f>
+      <c r="X26">
+        <f>SUM(G26:H26)/E26</f>
         <v>800</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>0.2</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
         <v>160</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>37</v>
       </c>
-      <c r="W27">
-        <f>SUM(F27:G27)/D27</f>
+      <c r="X27">
+        <f>SUM(G27:H27)/E27</f>
         <v>800</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>0.625</v>
+      </c>
+      <c r="D30">
+        <f>0.1404661*2</f>
+        <v>0.28093220000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="G30">
+        <v>700</v>
+      </c>
+      <c r="I30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>2900</v>
+      </c>
+      <c r="T30">
+        <f>D30*PI()*C30^2*0.25</f>
+        <v>8.6188919499689307E-2</v>
+      </c>
+      <c r="U30">
+        <f>E30/$T30</f>
+        <v>0.5801209748334325</v>
+      </c>
+      <c r="V30">
+        <f>G30/$T30</f>
+        <v>8121.6936476680548</v>
+      </c>
+      <c r="X30">
+        <f>SUM(G30:H30)/E30</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="G31">
+        <v>700</v>
+      </c>
+      <c r="T31">
+        <v>5.5320000000000001E-2</v>
+      </c>
+      <c r="U31">
+        <f>E31/$T31</f>
+        <v>0.90383224873463486</v>
+      </c>
+      <c r="V31">
+        <f>G31/$T31</f>
+        <v>12653.651482284888</v>
+      </c>
+      <c r="X31">
+        <f>SUM(G31:H31)/E31</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+      <c r="D32">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="I32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32">
+        <v>0.2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>2900</v>
+      </c>
+      <c r="T32">
+        <f>D32*PI()*C32^2*0.25</f>
+        <v>3.7110063220529427E-2</v>
+      </c>
+      <c r="U32">
+        <f>E32/$T32</f>
+        <v>0.80840606014930971</v>
+      </c>
+      <c r="V32">
+        <f>G32/$T32</f>
+        <v>10778.747468657464</v>
+      </c>
+      <c r="X32">
+        <f>SUM(G32:H32)/E32</f>
+        <v>13333.333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F29" t="s">
+      <c r="B34" s="1"/>
+      <c r="G34" t="s">
         <v>75</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V34" t="s">
         <v>81</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y34" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z34" t="s">
         <v>122</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
-      <c r="A30" t="s">
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B30">
+      <c r="C35">
         <v>1.25</v>
       </c>
-      <c r="C30">
+      <c r="D35">
         <f>2.4</f>
         <v>2.4</v>
       </c>
-      <c r="D30">
+      <c r="E35">
         <v>0.5</v>
       </c>
-      <c r="E30">
-        <f>D30+F30*0.0075</f>
+      <c r="F35">
+        <f>E35+G35*0.0075</f>
         <v>3.7475000000000001</v>
       </c>
-      <c r="F30">
+      <c r="G35">
         <v>433</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I35" t="s">
         <v>17</v>
       </c>
-      <c r="I30">
+      <c r="J35">
         <v>0.3</v>
       </c>
-      <c r="K30">
+      <c r="L35">
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="M35">
         <v>7</v>
       </c>
-      <c r="O30">
+      <c r="P35">
         <v>250</v>
       </c>
-      <c r="P30">
+      <c r="Q35">
         <v>550</v>
       </c>
-      <c r="Q30">
+      <c r="R35">
         <v>3600</v>
       </c>
-      <c r="S30">
-        <f>C30*PI()*B30^2*0.25</f>
+      <c r="T35">
+        <f>D35*PI()*C35^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="T30">
-        <f>D30/$S30</f>
+      <c r="U35">
+        <f>E35/$T35</f>
         <v>0.16976527263135505</v>
       </c>
-      <c r="U30">
-        <f>F30/$S30</f>
+      <c r="V35">
+        <f>G35/$T35</f>
         <v>147.01672609875348</v>
       </c>
-      <c r="W30">
-        <f>SUM(F30:G30)/D30</f>
+      <c r="X35">
+        <f>SUM(G35:H35)/E35</f>
         <v>866</v>
       </c>
-      <c r="X30">
-        <f>(P30*E30)/O30</f>
+      <c r="Y35">
+        <f>(Q35*F35)/P35</f>
         <v>8.2445000000000004</v>
       </c>
-      <c r="Y30">
-        <f>O30/E30</f>
+      <c r="Z35">
+        <f>P35/F35</f>
         <v>66.711140760507007</v>
       </c>
-      <c r="Z30">
-        <f>O30/D30</f>
+      <c r="AA35">
+        <f>P35/E35</f>
         <v>500</v>
       </c>
-      <c r="AA30">
+      <c r="AB35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
-      <c r="A31" t="s">
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B31">
+      <c r="C36">
         <v>1.25</v>
       </c>
-      <c r="C31">
+      <c r="D36">
         <v>7.1</v>
       </c>
-      <c r="D31">
+      <c r="E36">
         <v>1.5</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E32" si="7">D31+F31*0.0075</f>
+      <c r="F36">
+        <f t="shared" ref="F36:F37" si="7">E36+G36*0.0075</f>
         <v>7.875</v>
       </c>
-      <c r="F31">
+      <c r="G36">
         <v>850</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I36" t="s">
         <v>45</v>
       </c>
-      <c r="I31">
+      <c r="J36">
         <v>0.3</v>
       </c>
-      <c r="K31">
+      <c r="L36">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="M36">
         <v>7</v>
       </c>
-      <c r="O31">
+      <c r="P36">
         <v>315</v>
       </c>
-      <c r="P31">
+      <c r="Q36">
         <v>400</v>
       </c>
-      <c r="Q31">
+      <c r="R36">
         <v>3900</v>
       </c>
-      <c r="S31">
-        <f>C31*PI()*B31^2*0.25</f>
+      <c r="T36">
+        <f>D36*PI()*C36^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="T31">
-        <f>D31/$S31</f>
+      <c r="U36">
+        <f>E36/$T36</f>
         <v>0.17215633280926146</v>
       </c>
-      <c r="U31">
-        <f>F31/$S31</f>
+      <c r="V36">
+        <f>G36/$T36</f>
         <v>97.555255258581482</v>
       </c>
-      <c r="W31">
-        <f>SUM(F31:G31)/D31</f>
+      <c r="X36">
+        <f>SUM(G36:H36)/E36</f>
         <v>566.66666666666663</v>
       </c>
-      <c r="X31">
-        <f>(P31*E31)/O31</f>
+      <c r="Y36">
+        <f>(Q36*F36)/P36</f>
         <v>10</v>
       </c>
-      <c r="Y31">
-        <f t="shared" ref="Y31:Y32" si="8">O31/E31</f>
+      <c r="Z36">
+        <f t="shared" ref="Z36:Z37" si="8">P36/F36</f>
         <v>40</v>
       </c>
-      <c r="Z31">
-        <f>O31/D31</f>
+      <c r="AA36">
+        <f>P36/E36</f>
         <v>210</v>
       </c>
-      <c r="AA31">
+      <c r="AB36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
-      <c r="A32" t="s">
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
+      <c r="C37">
         <v>0.15</v>
       </c>
-      <c r="C32">
+      <c r="D37">
         <v>0.5</v>
       </c>
-      <c r="D32">
+      <c r="E37">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E32">
+      <c r="F37">
         <f t="shared" si="7"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F32">
+      <c r="G37">
         <v>8</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I37" t="s">
         <v>45</v>
       </c>
-      <c r="I32">
+      <c r="J37">
         <v>0.3</v>
       </c>
-      <c r="K32">
+      <c r="L37">
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="O32">
+      <c r="P37">
         <v>18</v>
       </c>
-      <c r="P32">
+      <c r="Q37">
         <v>550</v>
       </c>
-      <c r="Q32">
+      <c r="R37">
         <v>3600</v>
       </c>
-      <c r="S32">
-        <f>C32*PI()*B32^2*0.25</f>
+      <c r="T37">
+        <f>D37*PI()*C37^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="T32">
-        <f>D32/$S32</f>
+      <c r="U37">
+        <f>E37/$T37</f>
         <v>1.4147106052612919</v>
       </c>
-      <c r="U32">
-        <f>F32/$S32</f>
+      <c r="V37">
+        <f>G37/$T37</f>
         <v>905.41478736722684</v>
       </c>
-      <c r="W32">
-        <f>SUM(F32:G32)/D32</f>
+      <c r="X37">
+        <f>SUM(G37:H37)/E37</f>
         <v>640</v>
       </c>
-      <c r="X32">
-        <f>(P32*E32)/O32</f>
+      <c r="Y37">
+        <f>(Q37*F37)/P37</f>
         <v>2.2152777777777777</v>
       </c>
-      <c r="Y32">
+      <c r="Z37">
         <f t="shared" si="8"/>
         <v>248.27586206896552</v>
       </c>
-      <c r="Z32">
-        <f>O32/D32</f>
+      <c r="AA37">
+        <f>P37/E37</f>
         <v>1440</v>
       </c>
-      <c r="AA32">
+      <c r="AB37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
-      <c r="A34" s="1" t="s">
+    <row r="39" spans="1:28">
+      <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F34" t="s">
+      <c r="B39" s="1"/>
+      <c r="G39" t="s">
         <v>75</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V39" t="s">
         <v>81</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y39" t="s">
         <v>57</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z39" t="s">
         <v>122</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
-      <c r="A35" t="s">
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B35">
+      <c r="C40">
         <v>1.25</v>
       </c>
-      <c r="C35">
+      <c r="D40">
         <f>2.4</f>
         <v>2.4</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E40" s="1">
         <v>0.15625</v>
       </c>
-      <c r="E35">
-        <f>D35+F35*0.0075</f>
+      <c r="F40">
+        <f>E40+G40*0.0075</f>
         <v>13.83625</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G40" s="1">
         <v>1824</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I40" t="s">
         <v>17</v>
       </c>
-      <c r="I35">
+      <c r="J40">
         <v>0.3</v>
       </c>
-      <c r="K35">
+      <c r="L40">
         <v>2</v>
       </c>
-      <c r="L35">
+      <c r="M40">
         <v>7</v>
       </c>
-      <c r="O35">
+      <c r="P40">
         <v>250</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q40" s="1">
         <v>215</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R40" s="1">
         <v>2220</v>
       </c>
-      <c r="S35">
-        <f>C35*PI()*B35^2*0.25</f>
+      <c r="T40">
+        <f>D40*PI()*C40^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="T35">
-        <f>D35/$S35</f>
+      <c r="U40">
+        <f>E40/$T40</f>
         <v>5.3051647697298449E-2</v>
       </c>
-      <c r="U35">
-        <f>F35/$S35</f>
+      <c r="V40">
+        <f>G40/$T40</f>
         <v>619.30371455918316</v>
       </c>
-      <c r="W35">
-        <f>SUM(F35:G35)/D35</f>
+      <c r="X40">
+        <f>SUM(G40:H40)/E40</f>
         <v>11673.6</v>
       </c>
-      <c r="X35">
-        <f>(P35*E35)/O35</f>
+      <c r="Y40">
+        <f>(Q40*F40)/P40</f>
         <v>11.899175</v>
       </c>
-      <c r="Y35">
-        <f>O35/E35</f>
+      <c r="Z40">
+        <f>P40/F40</f>
         <v>18.068479537446922</v>
       </c>
-      <c r="Z35">
-        <f>O35/D35</f>
+      <c r="AA40">
+        <f>P40/E40</f>
         <v>1600</v>
       </c>
-      <c r="AA35">
-        <f t="shared" ref="AA35:AA37" si="9">M35/D35</f>
+      <c r="AB40">
+        <f t="shared" ref="AB40:AB42" si="9">N40/E40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
-      <c r="A36" t="s">
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B36">
+      <c r="C41">
         <v>1.25</v>
       </c>
-      <c r="C36">
+      <c r="D41">
         <v>7.1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E41" s="1">
         <v>0.46875</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E37" si="10">D36+F36*0.0075</f>
+      <c r="F41">
+        <f t="shared" ref="F41:F42" si="10">E41+G41*0.0075</f>
         <v>27.326249999999998</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G41" s="1">
         <v>3581</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I41" t="s">
         <v>45</v>
       </c>
-      <c r="I36">
+      <c r="J41">
         <v>0.3</v>
       </c>
-      <c r="K36">
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="L36">
+      <c r="M41">
         <v>7</v>
       </c>
-      <c r="O36">
+      <c r="P41">
         <v>315</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q41" s="1">
         <v>187</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R41" s="1">
         <v>1996</v>
       </c>
-      <c r="S36">
-        <f>C36*PI()*B36^2*0.25</f>
+      <c r="T41">
+        <f>D41*PI()*C41^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="T36">
-        <f>D36/$S36</f>
+      <c r="U41">
+        <f>E41/$T41</f>
         <v>5.3798854002894199E-2</v>
       </c>
-      <c r="U36">
-        <f>F36/$S36</f>
+      <c r="V41">
+        <f>G41/$T41</f>
         <v>410.99455185997681</v>
       </c>
-      <c r="W36">
-        <f>SUM(F36:G36)/D36</f>
+      <c r="X41">
+        <f>SUM(G41:H41)/E41</f>
         <v>7639.4666666666662</v>
       </c>
-      <c r="X36">
-        <f>(P36*E36)/O36</f>
+      <c r="Y41">
+        <f>(Q41*F41)/P41</f>
         <v>16.222249999999999</v>
       </c>
-      <c r="Y36">
-        <f t="shared" ref="Y36:Y37" si="11">O36/E36</f>
+      <c r="Z41">
+        <f t="shared" ref="Z41:Z42" si="11">P41/F41</f>
         <v>11.527377521613834</v>
       </c>
-      <c r="Z36">
-        <f>O36/D36</f>
+      <c r="AA41">
+        <f>P41/E41</f>
         <v>672</v>
       </c>
-      <c r="AA36">
+      <c r="AB41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
-      <c r="A37" t="s">
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
+      <c r="C42">
         <v>0.15</v>
       </c>
-      <c r="C37">
+      <c r="D42">
         <v>0.5</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E42" s="1">
         <v>3.90625E-3</v>
       </c>
-      <c r="E37">
+      <c r="F42">
         <f t="shared" si="10"/>
         <v>0.25890625</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G42" s="1">
         <v>34</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I42" t="s">
         <v>45</v>
       </c>
-      <c r="I37">
+      <c r="J42">
         <v>0.3</v>
       </c>
-      <c r="K37">
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="L37">
+      <c r="M42">
         <v>7</v>
       </c>
-      <c r="O37">
+      <c r="P42">
         <v>18</v>
       </c>
-      <c r="P37">
+      <c r="Q42">
         <v>550</v>
       </c>
-      <c r="Q37">
+      <c r="R42">
         <v>3600</v>
       </c>
-      <c r="S37">
-        <f>C37*PI()*B37^2*0.25</f>
+      <c r="T42">
+        <f>D42*PI()*C42^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="T37">
-        <f>D37/$S37</f>
+      <c r="U42">
+        <f>E42/$T42</f>
         <v>0.44209706414415373</v>
       </c>
-      <c r="U37">
-        <f>F37/$S37</f>
+      <c r="V42">
+        <f>G42/$T42</f>
         <v>3848.0128463107139</v>
       </c>
-      <c r="W37">
-        <f>SUM(F37:G37)/D37</f>
+      <c r="X42">
+        <f>SUM(G42:H42)/E42</f>
         <v>8704</v>
       </c>
-      <c r="X37">
-        <f>(P37*E37)/O37</f>
+      <c r="Y42">
+        <f>(Q42*F42)/P42</f>
         <v>7.9110243055555554</v>
       </c>
-      <c r="Y37">
+      <c r="Z42">
         <f t="shared" si="11"/>
         <v>69.523234761617374</v>
       </c>
-      <c r="Z37">
-        <f>O37/D37</f>
+      <c r="AA42">
+        <f>P42/E42</f>
         <v>4608</v>
       </c>
-      <c r="AA37">
+      <c r="AB42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="9900"/>
+    <workbookView xWindow="3760" yWindow="4080" windowWidth="30840" windowHeight="18980"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="subs">#REF!</definedName>
     <definedName name="thresh">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +37,7 @@
     <author>Chris Wood</author>
   </authors>
   <commentList>
-    <comment ref="A31" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
   <si>
     <t>dia</t>
   </si>
@@ -468,13 +468,43 @@
   </si>
   <si>
     <t>&lt;-- see note</t>
+  </si>
+  <si>
+    <t>Size3SmallTank</t>
+  </si>
+  <si>
+    <t>Size3LargeTank</t>
+  </si>
+  <si>
+    <t>Size3MediumTank</t>
+  </si>
+  <si>
+    <t>Kerbodyne S3-3600</t>
+  </si>
+  <si>
+    <t>Kerbodyne S3-7200</t>
+  </si>
+  <si>
+    <t>Kerbodyne S3-14400</t>
+  </si>
+  <si>
+    <t>TR-38-D</t>
+  </si>
+  <si>
+    <t>S1 SRB-KD25k</t>
+  </si>
+  <si>
+    <t>MassiveBooster</t>
+  </si>
+  <si>
+    <t>Size3to2Adapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +569,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -557,7 +594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -581,8 +618,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,8 +630,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -604,6 +644,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -615,6 +656,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,20 +948,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1072,15 +1114,15 @@
         <v>65.4615488213486</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X13" si="0">SUM(G4:H4)/E4</f>
+        <f t="shared" ref="X4:X16" si="0">SUM(G4:H4)/E4</f>
         <v>849</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y13" si="1">G4/E4</f>
+        <f t="shared" ref="Y4:Y16" si="1">G4/E4</f>
         <v>382.33333333333337</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z13" si="2">H4/E4</f>
+        <f t="shared" ref="Z4:Z16" si="2">H4/E4</f>
         <v>466.66666666666669</v>
       </c>
       <c r="AB4">
@@ -1120,7 +1162,7 @@
         <v>487.99999999999994</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB37" si="3">N5/E5</f>
+        <f t="shared" ref="AB5:AB41" si="3">N5/E5</f>
         <v>0</v>
       </c>
     </row>
@@ -1165,15 +1207,15 @@
         <v>2900</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T13" si="4">D6*PI()*C6^2*0.25</f>
+        <f t="shared" ref="T6:T16" si="4">D6*PI()*C6^2*0.25</f>
         <v>0.95873799242852575</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U13" si="5">E6/$T6</f>
+        <f t="shared" ref="U6:U16" si="5">E6/$T6</f>
         <v>6.518986469044033E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:W13" si="6">G6/$T6</f>
+        <f t="shared" ref="V6:W16" si="6">G6/$T6</f>
         <v>46.936702577117039</v>
       </c>
       <c r="W6">
@@ -1693,190 +1735,271 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>3.75</v>
+      </c>
+      <c r="D14">
+        <v>1.927</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>1620</v>
+      </c>
+      <c r="H14">
+        <v>1980</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>0.3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="R14">
+        <v>2900</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>21.283063043440539</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0.11746429519554059</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>76.116863286710299</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>93.031721794868147</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="V15" t="s">
-        <v>77</v>
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15">
+        <v>3.75</v>
+      </c>
+      <c r="D15">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3240</v>
+      </c>
+      <c r="H15">
+        <v>3960</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>2900</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>42.720751350299949</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0.11703914004229923</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>75.841362747409903</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>92.694998913500996</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>3.75</v>
+      </c>
+      <c r="D16">
+        <v>7.48</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>6480</v>
+      </c>
+      <c r="H16">
+        <v>7920</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>400</v>
+      </c>
+      <c r="O16">
+        <v>400</v>
+      </c>
+      <c r="R16">
+        <v>2900</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>82.614069312369097</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0.12104475766941535</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>78.437002969781147</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>95.867448074176949</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>1.25</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <f>2*0.2853027</f>
         <v>0.57060540000000004</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>0.15</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>0.2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
-      <c r="R16">
-        <v>2900</v>
-      </c>
-      <c r="T16">
-        <f>D16*PI()*C16^2*0.25</f>
-        <v>0.70023817685104117</v>
-      </c>
-      <c r="U16">
-        <f>E16/$T16</f>
-        <v>0.21421282780460124</v>
-      </c>
-      <c r="V16">
-        <f>G16/$T16</f>
-        <v>142.80855186973417</v>
-      </c>
-      <c r="X16">
-        <f>SUM(G16:H16)/E16</f>
-        <v>666.66666666666674</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>2.5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>750</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="R17">
-        <v>2900</v>
-      </c>
-      <c r="T17">
-        <f>D17*PI()*C17^2*0.25</f>
-        <v>4.908738521234052</v>
-      </c>
-      <c r="U17">
-        <f>E17/$T17</f>
-        <v>8.148733086305042E-2</v>
-      </c>
-      <c r="V17">
-        <f>G17/$T17</f>
-        <v>152.78874536821951</v>
-      </c>
-      <c r="X17">
-        <f>SUM(G17:H17)/E17</f>
-        <v>1875</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>0.625</v>
-      </c>
-      <c r="D18">
-        <v>0.375</v>
-      </c>
-      <c r="E18">
-        <v>0.05</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
-        <v>50</v>
-      </c>
-      <c r="R18">
-        <v>2900</v>
-      </c>
-      <c r="T18">
-        <f>D18*PI()*C18^2*0.25</f>
-        <v>0.11504855909142309</v>
-      </c>
-      <c r="U18">
-        <f>E18/$T18</f>
-        <v>0.43459909793626889</v>
-      </c>
-      <c r="V18">
-        <f>G18/$T18</f>
-        <v>434.59909793626889</v>
-      </c>
-      <c r="X18">
-        <f>SUM(G18:H18)/E18</f>
-        <v>1000</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G19">
-        <v>40</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
@@ -1893,9 +2016,21 @@
       <c r="R19">
         <v>2900</v>
       </c>
+      <c r="T19">
+        <f>D19*PI()*C19^2*0.25</f>
+        <v>0.70023817685104117</v>
+      </c>
+      <c r="U19">
+        <f>E19/$T19</f>
+        <v>0.21421282780460124</v>
+      </c>
+      <c r="V19">
+        <f>G19/$T19</f>
+        <v>142.80855186973417</v>
+      </c>
       <c r="X19">
         <f>SUM(G19:H19)/E19</f>
-        <v>533.33333333333337</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="AB19">
         <f t="shared" si="3"/>
@@ -1904,16 +2039,22 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J20">
         <v>0.2</v>
@@ -1924,130 +2065,202 @@
       <c r="M20">
         <v>12</v>
       </c>
+      <c r="R20">
+        <v>2900</v>
+      </c>
+      <c r="T20">
+        <f>D20*PI()*C20^2*0.25</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="U20">
+        <f>E20/$T20</f>
+        <v>8.148733086305042E-2</v>
+      </c>
+      <c r="V20">
+        <f>G20/$T20</f>
+        <v>152.78874536821951</v>
+      </c>
       <c r="X20">
         <f>SUM(G20:H20)/E20</f>
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="AB20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>0.625</v>
+      </c>
+      <c r="D21">
+        <v>0.375</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>50</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>2900</v>
+      </c>
+      <c r="T21">
+        <f>D21*PI()*C21^2*0.25</f>
+        <v>0.11504855909142309</v>
+      </c>
+      <c r="U21">
+        <f>E21/$T21</f>
+        <v>0.43459909793626889</v>
+      </c>
+      <c r="V21">
+        <f>G21/$T21</f>
+        <v>434.59909793626889</v>
+      </c>
+      <c r="X21">
+        <f>SUM(G21:H21)/E21</f>
+        <v>1000</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="G22" t="s">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
-      <c r="V22" t="s">
-        <v>78</v>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="R22">
+        <v>2900</v>
+      </c>
+      <c r="X22">
+        <f>SUM(G22:H22)/E22</f>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>1.25</v>
-      </c>
-      <c r="D23">
-        <v>1.875</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="G23">
         <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>0.2</v>
       </c>
-      <c r="T23">
-        <f>D23*PI()*C23^2*0.25</f>
-        <v>2.3009711818284617</v>
-      </c>
-      <c r="U23">
-        <f>E23/$T23</f>
-        <v>0.15210968427769411</v>
-      </c>
-      <c r="V23">
-        <f>G23/$T23</f>
-        <v>65.189864690440331</v>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
       </c>
       <c r="X23">
         <f>SUM(G23:H23)/E23</f>
-        <v>428.57142857142861</v>
+        <v>1000</v>
       </c>
       <c r="AB23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>0.2</v>
-      </c>
-      <c r="G24">
-        <v>160</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24">
-        <f>SUM(G24:H24)/E24</f>
-        <v>800</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" spans="1:28">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25">
-        <v>0.1</v>
-      </c>
-      <c r="G25">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="X25">
-        <f>SUM(G25:H25)/E25</f>
-        <v>800</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1.25</v>
+      </c>
+      <c r="D26">
+        <v>1.875</v>
       </c>
       <c r="E26">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G26">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="T26">
+        <f>D26*PI()*C26^2*0.25</f>
+        <v>2.3009711818284617</v>
+      </c>
+      <c r="U26">
+        <f>E26/$T26</f>
+        <v>0.15210968427769411</v>
+      </c>
+      <c r="V26">
+        <f>G26/$T26</f>
+        <v>65.189864690440331</v>
       </c>
       <c r="X26">
         <f>SUM(G26:H26)/E26</f>
-        <v>800</v>
+        <v>428.57142857142861</v>
       </c>
       <c r="AB26">
         <f t="shared" si="3"/>
@@ -2056,7 +2269,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0.2</v>
@@ -2065,7 +2278,7 @@
         <v>160</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X27">
         <f>SUM(G27:H27)/E27</f>
@@ -2076,637 +2289,789 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28">
+        <f>SUM(G28:H28)/E28</f>
+        <v>800</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="G29" t="s">
-        <v>125</v>
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0.3</v>
+      </c>
+      <c r="G29">
+        <v>240</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29">
+        <f>SUM(G29:H29)/E29</f>
+        <v>800</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>160</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30">
+        <f>SUM(G30:H30)/E30</f>
+        <v>800</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>128</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>0.625</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <f>0.1404661*2</f>
         <v>0.28093220000000002</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>0.05</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>700</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I33" t="s">
         <v>129</v>
       </c>
-      <c r="J30">
-        <v>0.2</v>
-      </c>
-      <c r="L30">
+      <c r="J33">
+        <v>0.2</v>
+      </c>
+      <c r="L33">
         <v>2</v>
       </c>
-      <c r="M30">
+      <c r="M33">
         <v>6</v>
       </c>
-      <c r="N30">
+      <c r="N33">
         <v>50</v>
       </c>
-      <c r="O30">
+      <c r="O33">
         <v>50</v>
       </c>
-      <c r="R30">
+      <c r="R33">
         <v>2900</v>
       </c>
-      <c r="T30">
-        <f>D30*PI()*C30^2*0.25</f>
+      <c r="T33">
+        <f>D33*PI()*C33^2*0.25</f>
         <v>8.6188919499689307E-2</v>
       </c>
-      <c r="U30">
-        <f>E30/$T30</f>
+      <c r="U33">
+        <f>E33/$T33</f>
         <v>0.5801209748334325</v>
       </c>
-      <c r="V30">
-        <f>G30/$T30</f>
+      <c r="V33">
+        <f>G33/$T33</f>
         <v>8121.6936476680548</v>
       </c>
-      <c r="X30">
-        <f>SUM(G30:H30)/E30</f>
+      <c r="X33">
+        <f>SUM(G33:H33)/E33</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" t="s">
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>0.05</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>700</v>
       </c>
-      <c r="T31">
+      <c r="T34">
         <v>5.5320000000000001E-2</v>
       </c>
-      <c r="U31">
-        <f>E31/$T31</f>
+      <c r="U34">
+        <f>E34/$T34</f>
         <v>0.90383224873463486</v>
       </c>
-      <c r="V31">
-        <f>G31/$T31</f>
+      <c r="V34">
+        <f>G34/$T34</f>
         <v>12653.651482284888</v>
       </c>
-      <c r="X31">
-        <f>SUM(G31:H31)/E31</f>
+      <c r="X34">
+        <f>SUM(G34:H34)/E34</f>
         <v>14000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32">
-        <v>0.3</v>
-      </c>
-      <c r="D32">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E32">
-        <v>0.03</v>
-      </c>
-      <c r="G32">
-        <v>400</v>
-      </c>
-      <c r="I32" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32">
-        <v>0.2</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>12</v>
-      </c>
-      <c r="R32">
-        <v>2900</v>
-      </c>
-      <c r="T32">
-        <f>D32*PI()*C32^2*0.25</f>
-        <v>3.7110063220529427E-2</v>
-      </c>
-      <c r="U32">
-        <f>E32/$T32</f>
-        <v>0.80840606014930971</v>
-      </c>
-      <c r="V32">
-        <f>G32/$T32</f>
-        <v>10778.747468657464</v>
-      </c>
-      <c r="X32">
-        <f>SUM(G32:H32)/E32</f>
-        <v>13333.333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="V34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.03</v>
+      </c>
+      <c r="G35">
+        <v>400</v>
+      </c>
+      <c r="I35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35">
+        <v>0.2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>2900</v>
+      </c>
+      <c r="T35">
+        <f>D35*PI()*C35^2*0.25</f>
+        <v>3.7110063220529427E-2</v>
+      </c>
+      <c r="U35">
+        <f>E35/$T35</f>
+        <v>0.80840606014930971</v>
+      </c>
+      <c r="V35">
+        <f>G35/$T35</f>
+        <v>10778.747468657464</v>
+      </c>
+      <c r="X35">
+        <f>SUM(G35:H35)/E35</f>
+        <v>13333.333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="V37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>1.25</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <f>2.4</f>
         <v>2.4</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="F35">
-        <f>E35+G35*0.0075</f>
+      <c r="F38">
+        <f>E38+G38*0.0075</f>
         <v>3.7475000000000001</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>433</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I38" t="s">
         <v>17</v>
       </c>
-      <c r="J35">
+      <c r="J38">
         <v>0.3</v>
       </c>
-      <c r="L35">
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="M35">
+      <c r="M38">
         <v>7</v>
       </c>
-      <c r="P35">
+      <c r="P38">
         <v>250</v>
       </c>
-      <c r="Q35">
+      <c r="Q38">
         <v>550</v>
       </c>
-      <c r="R35">
+      <c r="R38">
         <v>3600</v>
       </c>
-      <c r="T35">
-        <f>D35*PI()*C35^2*0.25</f>
+      <c r="T38">
+        <f>D38*PI()*C38^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="U35">
-        <f>E35/$T35</f>
+      <c r="U38">
+        <f>E38/$T38</f>
         <v>0.16976527263135505</v>
       </c>
-      <c r="V35">
-        <f>G35/$T35</f>
+      <c r="V38">
+        <f>G38/$T38</f>
         <v>147.01672609875348</v>
       </c>
-      <c r="X35">
-        <f>SUM(G35:H35)/E35</f>
+      <c r="X38">
+        <f>SUM(G38:H38)/E38</f>
         <v>866</v>
       </c>
-      <c r="Y35">
-        <f>(Q35*F35)/P35</f>
+      <c r="Y38">
+        <f>(Q38*F38)/P38</f>
         <v>8.2445000000000004</v>
       </c>
-      <c r="Z35">
-        <f>P35/F35</f>
+      <c r="Z38">
+        <f>P38/F38</f>
         <v>66.711140760507007</v>
       </c>
-      <c r="AA35">
-        <f>P35/E35</f>
+      <c r="AA38">
+        <f>P38/E38</f>
         <v>500</v>
       </c>
-      <c r="AB35">
+      <c r="AB38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
-      <c r="A36" t="s">
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <v>1.25</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>7.1</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>1.5</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F37" si="7">E36+G36*0.0075</f>
+      <c r="F39">
+        <f t="shared" ref="F39:F41" si="7">E39+G39*0.0075</f>
         <v>7.875</v>
       </c>
-      <c r="G36">
+      <c r="G39">
         <v>850</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="J36">
+      <c r="J39">
         <v>0.3</v>
       </c>
-      <c r="L36">
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="M36">
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="P36">
+      <c r="P39">
         <v>315</v>
       </c>
-      <c r="Q36">
+      <c r="Q39">
         <v>400</v>
       </c>
-      <c r="R36">
+      <c r="R39">
         <v>3900</v>
       </c>
-      <c r="T36">
-        <f>D36*PI()*C36^2*0.25</f>
+      <c r="T39">
+        <f>D39*PI()*C39^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="U36">
-        <f>E36/$T36</f>
+      <c r="U39">
+        <f>E39/$T39</f>
         <v>0.17215633280926146</v>
       </c>
-      <c r="V36">
-        <f>G36/$T36</f>
+      <c r="V39">
+        <f>G39/$T39</f>
         <v>97.555255258581482</v>
       </c>
-      <c r="X36">
-        <f>SUM(G36:H36)/E36</f>
+      <c r="X39">
+        <f>SUM(G39:H39)/E39</f>
         <v>566.66666666666663</v>
       </c>
-      <c r="Y36">
-        <f>(Q36*F36)/P36</f>
+      <c r="Y39">
+        <f>(Q39*F39)/P39</f>
         <v>10</v>
       </c>
-      <c r="Z36">
-        <f t="shared" ref="Z36:Z37" si="8">P36/F36</f>
+      <c r="Z39">
+        <f t="shared" ref="Z39:Z41" si="8">P39/F39</f>
         <v>40</v>
       </c>
-      <c r="AA36">
-        <f>P36/E36</f>
+      <c r="AA39">
+        <f>P39/E39</f>
         <v>210</v>
       </c>
-      <c r="AB36">
+      <c r="AB39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" t="s">
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40">
+        <v>1.25</v>
+      </c>
+      <c r="D40">
+        <v>14.9</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>21.75</v>
+      </c>
+      <c r="G40">
+        <v>2500</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>0.3</v>
+      </c>
+      <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>200</v>
+      </c>
+      <c r="O40">
+        <v>200</v>
+      </c>
+      <c r="P40">
+        <v>650</v>
+      </c>
+      <c r="Q40">
+        <v>400</v>
+      </c>
+      <c r="R40">
+        <v>3900</v>
+      </c>
+      <c r="T40">
+        <f>D40*PI()*C40^2*0.25</f>
+        <v>18.285050991596844</v>
+      </c>
+      <c r="U40">
+        <f>E40/$T40</f>
+        <v>0.16406845140211493</v>
+      </c>
+      <c r="V40">
+        <f>G40/$T40</f>
+        <v>136.72370950176244</v>
+      </c>
+      <c r="X40">
+        <f>SUM(G40:H40)/E40</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="Y40">
+        <f>(Q40*F40)/P40</f>
+        <v>13.384615384615385</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="8"/>
+        <v>29.885057471264368</v>
+      </c>
+      <c r="AA40">
+        <f>P40/E40</f>
+        <v>216.66666666666666</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>0.15</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>0.5</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <f t="shared" si="7"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G37">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I41" t="s">
         <v>45</v>
       </c>
-      <c r="J37">
+      <c r="J41">
         <v>0.3</v>
       </c>
-      <c r="L37">
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="M37">
+      <c r="M41">
         <v>7</v>
       </c>
-      <c r="P37">
+      <c r="P41">
         <v>18</v>
       </c>
-      <c r="Q37">
+      <c r="Q41">
         <v>550</v>
       </c>
-      <c r="R37">
+      <c r="R41">
         <v>3600</v>
       </c>
-      <c r="T37">
-        <f>D37*PI()*C37^2*0.25</f>
+      <c r="T41">
+        <f>D41*PI()*C41^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="U37">
-        <f>E37/$T37</f>
+      <c r="U41">
+        <f>E41/$T41</f>
         <v>1.4147106052612919</v>
       </c>
-      <c r="V37">
-        <f>G37/$T37</f>
+      <c r="V41">
+        <f>G41/$T41</f>
         <v>905.41478736722684</v>
       </c>
-      <c r="X37">
-        <f>SUM(G37:H37)/E37</f>
+      <c r="X41">
+        <f>SUM(G41:H41)/E41</f>
         <v>640</v>
       </c>
-      <c r="Y37">
-        <f>(Q37*F37)/P37</f>
+      <c r="Y41">
+        <f>(Q41*F41)/P41</f>
         <v>2.2152777777777777</v>
       </c>
-      <c r="Z37">
+      <c r="Z41">
         <f t="shared" si="8"/>
         <v>248.27586206896552</v>
       </c>
-      <c r="AA37">
-        <f>P37/E37</f>
+      <c r="AA41">
+        <f>P41/E41</f>
         <v>1440</v>
       </c>
-      <c r="AB37">
+      <c r="AB41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:28">
+      <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="G39" t="s">
+      <c r="B43" s="1"/>
+      <c r="G43" t="s">
         <v>75</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V43" t="s">
         <v>81</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y43" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AA43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
-      <c r="A40" t="s">
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>1.25</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <f>2.4</f>
         <v>2.4</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E44" s="1">
         <v>0.15625</v>
       </c>
-      <c r="F40">
-        <f>E40+G40*0.0075</f>
+      <c r="F44">
+        <f>E44+G44*0.0075</f>
         <v>13.83625</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G44" s="1">
         <v>1824</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I44" t="s">
         <v>17</v>
       </c>
-      <c r="J40">
+      <c r="J44">
         <v>0.3</v>
       </c>
-      <c r="L40">
+      <c r="L44">
         <v>2</v>
       </c>
-      <c r="M40">
+      <c r="M44">
         <v>7</v>
       </c>
-      <c r="P40">
+      <c r="P44">
         <v>250</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q44" s="1">
         <v>215</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R44" s="1">
         <v>2220</v>
       </c>
-      <c r="T40">
-        <f>D40*PI()*C40^2*0.25</f>
+      <c r="T44">
+        <f>D44*PI()*C44^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="U40">
-        <f>E40/$T40</f>
+      <c r="U44">
+        <f>E44/$T44</f>
         <v>5.3051647697298449E-2</v>
       </c>
-      <c r="V40">
-        <f>G40/$T40</f>
+      <c r="V44">
+        <f>G44/$T44</f>
         <v>619.30371455918316</v>
       </c>
-      <c r="X40">
-        <f>SUM(G40:H40)/E40</f>
+      <c r="X44">
+        <f>SUM(G44:H44)/E44</f>
         <v>11673.6</v>
       </c>
-      <c r="Y40">
-        <f>(Q40*F40)/P40</f>
+      <c r="Y44">
+        <f>(Q44*F44)/P44</f>
         <v>11.899175</v>
       </c>
-      <c r="Z40">
-        <f>P40/F40</f>
+      <c r="Z44">
+        <f>P44/F44</f>
         <v>18.068479537446922</v>
       </c>
-      <c r="AA40">
-        <f>P40/E40</f>
+      <c r="AA44">
+        <f>P44/E44</f>
         <v>1600</v>
       </c>
-      <c r="AB40">
-        <f t="shared" ref="AB40:AB42" si="9">N40/E40</f>
+      <c r="AB44">
+        <f t="shared" ref="AB44:AB46" si="9">N44/E44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
-      <c r="A41" t="s">
+    <row r="45" spans="1:28">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <v>1.25</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>7.1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E45" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F41">
-        <f t="shared" ref="F41:F42" si="10">E41+G41*0.0075</f>
+      <c r="F45">
+        <f t="shared" ref="F45:F46" si="10">E45+G45*0.0075</f>
         <v>27.326249999999998</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G45" s="1">
         <v>3581</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I45" t="s">
         <v>45</v>
       </c>
-      <c r="J41">
+      <c r="J45">
         <v>0.3</v>
       </c>
-      <c r="L41">
+      <c r="L45">
         <v>2</v>
       </c>
-      <c r="M41">
+      <c r="M45">
         <v>7</v>
       </c>
-      <c r="P41">
+      <c r="P45">
         <v>315</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q45" s="1">
         <v>187</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R45" s="1">
         <v>1996</v>
       </c>
-      <c r="T41">
-        <f>D41*PI()*C41^2*0.25</f>
+      <c r="T45">
+        <f>D45*PI()*C45^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="U41">
-        <f>E41/$T41</f>
+      <c r="U45">
+        <f>E45/$T45</f>
         <v>5.3798854002894199E-2</v>
       </c>
-      <c r="V41">
-        <f>G41/$T41</f>
+      <c r="V45">
+        <f>G45/$T45</f>
         <v>410.99455185997681</v>
       </c>
-      <c r="X41">
-        <f>SUM(G41:H41)/E41</f>
+      <c r="X45">
+        <f>SUM(G45:H45)/E45</f>
         <v>7639.4666666666662</v>
       </c>
-      <c r="Y41">
-        <f>(Q41*F41)/P41</f>
+      <c r="Y45">
+        <f>(Q45*F45)/P45</f>
         <v>16.222249999999999</v>
       </c>
-      <c r="Z41">
-        <f t="shared" ref="Z41:Z42" si="11">P41/F41</f>
+      <c r="Z45">
+        <f t="shared" ref="Z45:Z46" si="11">P45/F45</f>
         <v>11.527377521613834</v>
       </c>
-      <c r="AA41">
-        <f>P41/E41</f>
+      <c r="AA45">
+        <f>P45/E45</f>
         <v>672</v>
       </c>
-      <c r="AB41">
+      <c r="AB45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
-      <c r="A42" t="s">
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>0.15</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>0.5</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E46" s="1">
         <v>3.90625E-3</v>
       </c>
-      <c r="F42">
+      <c r="F46">
         <f t="shared" si="10"/>
         <v>0.25890625</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G46" s="1">
         <v>34</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I46" t="s">
         <v>45</v>
       </c>
-      <c r="J42">
+      <c r="J46">
         <v>0.3</v>
       </c>
-      <c r="L42">
+      <c r="L46">
         <v>2</v>
       </c>
-      <c r="M42">
+      <c r="M46">
         <v>7</v>
       </c>
-      <c r="P42">
+      <c r="P46">
         <v>18</v>
       </c>
-      <c r="Q42">
+      <c r="Q46">
         <v>550</v>
       </c>
-      <c r="R42">
+      <c r="R46">
         <v>3600</v>
       </c>
-      <c r="T42">
-        <f>D42*PI()*C42^2*0.25</f>
+      <c r="T46">
+        <f>D46*PI()*C46^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="U42">
-        <f>E42/$T42</f>
+      <c r="U46">
+        <f>E46/$T46</f>
         <v>0.44209706414415373</v>
       </c>
-      <c r="V42">
-        <f>G42/$T42</f>
+      <c r="V46">
+        <f>G46/$T46</f>
         <v>3848.0128463107139</v>
       </c>
-      <c r="X42">
-        <f>SUM(G42:H42)/E42</f>
+      <c r="X46">
+        <f>SUM(G46:H46)/E46</f>
         <v>8704</v>
       </c>
-      <c r="Y42">
-        <f>(Q42*F42)/P42</f>
+      <c r="Y46">
+        <f>(Q46*F46)/P46</f>
         <v>7.9110243055555554</v>
       </c>
-      <c r="Z42">
+      <c r="Z46">
         <f t="shared" si="11"/>
         <v>69.523234761617374</v>
       </c>
-      <c r="AA42">
-        <f>P42/E42</f>
+      <c r="AA46">
+        <f>P46/E46</f>
         <v>4608</v>
       </c>
-      <c r="AB42">
+      <c r="AB46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2717,8 +3082,8 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2728,14 +3093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -2787,11 +3152,11 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I7" si="0">2*PI()*(C2/2)*B2</f>
+        <f t="shared" ref="I2:I8" si="0">2*PI()*(C2/2)*B2</f>
         <v>0.77772717953554549</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J7" si="1">E2/I2</f>
+        <f t="shared" ref="J2:J8" si="1">E2/I2</f>
         <v>6.4289896657411069E-2</v>
       </c>
       <c r="L2">
@@ -2877,113 +3242,149 @@
         <v>50.929581789406505</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>0.87070789999999998</v>
+      </c>
+      <c r="C5">
+        <v>3.75</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <f>2*PI()*(C5/2)*B5</f>
+        <v>10.257785782734734</v>
+      </c>
+      <c r="J5">
+        <f>E5/I5</f>
+        <v>7.7989540525062462E-2</v>
+      </c>
+      <c r="L5">
+        <f>PI()*(C5/2)^2</f>
+        <v>11.044661672776616</v>
+      </c>
+      <c r="M5">
+        <f>D5/L5</f>
+        <v>9.0541478736722691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>0.07590994*2</f>
         <v>0.15181987999999999</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.625</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.02</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="I6">
-        <f>2*PI()*(C6/2)*B6</f>
+      <c r="I7">
+        <f>2*PI()*(C7/2)*B7</f>
         <v>0.29809763729805244</v>
       </c>
-      <c r="J6">
-        <f>E6/I6</f>
+      <c r="J7">
+        <f>E7/I7</f>
         <v>6.7092111770087712E-2</v>
       </c>
-      <c r="L6">
-        <f>PI()*(C6/2)^2</f>
+      <c r="L7">
+        <f>PI()*(C7/2)^2</f>
         <v>0.30679615757712825</v>
       </c>
-      <c r="M6">
-        <f>D6/L6</f>
+      <c r="M7">
+        <f>D7/L7</f>
         <v>48.892398517830244</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>0.1833064*2</f>
         <v>0.36661280000000002</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1.25</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>250</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>1.4396850989899801</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>5.2094725473380746E-2</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7" si="2">PI()*(C7/2)^2</f>
+      <c r="L8">
+        <f t="shared" ref="L8" si="2">PI()*(C8/2)^2</f>
         <v>1.227184630308513</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7" si="3">D7/L7</f>
+      <c r="M8">
+        <f t="shared" ref="M8" si="3">D8/L8</f>
         <v>203.71832715762602</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
         <v>2.5</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>600</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="I8">
-        <f>2*PI()*(C8/2)*B8</f>
+      <c r="I9">
+        <f>2*PI()*(C9/2)*B9</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="J8">
-        <f>E8/I8</f>
+      <c r="J9">
+        <f>E9/I9</f>
         <v>0.28647889756541162</v>
       </c>
-      <c r="L8">
-        <f>PI()*(C8/2)^2</f>
+      <c r="L9">
+        <f>PI()*(C9/2)^2</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="M8">
-        <f>D8/L8</f>
+      <c r="M9">
+        <f>D9/L9</f>
         <v>122.23099629457562</v>
       </c>
     </row>
@@ -2998,20 +3399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3184,7 +3585,7 @@
         <v>0.23111977177734375</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R34" si="0">E7/$Q7</f>
+        <f t="shared" ref="R7:R35" si="0">E7/$Q7</f>
         <v>0.12980282807176449</v>
       </c>
     </row>
@@ -3229,7 +3630,7 @@
         <v>3400</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q17" si="1">((((B8/2)^2)+((B8/2)*(C8/2))+((C8/2)^2))*D8*3.14159265)/3</f>
+        <f t="shared" ref="Q8:Q18" si="1">((((B8/2)^2)+((B8/2)*(C8/2))+((C8/2)^2))*D8*3.14159265)/3</f>
         <v>3.4279357300781257</v>
       </c>
       <c r="R8">
@@ -3537,35 +3938,35 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17">
-        <v>1.25</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.65500000000000003</v>
+      <c r="A17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
       </c>
       <c r="D17">
-        <v>1.06</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>0.2</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>200</v>
@@ -3574,190 +3975,195 @@
         <v>200</v>
       </c>
       <c r="O17">
+        <v>2900</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>17.098772496093751</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>1.169674607026267E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>1.25</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D18">
+        <v>1.06</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+      <c r="O18">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="1"/>
         <v>0.77987197012895637</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R18" s="3">
         <f t="shared" si="0"/>
         <v>0.32056543839966584</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>0.65500000000000003</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>0.65500000000000003</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1.1185</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.125</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G20">
-        <v>0.2</v>
-      </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
-      <c r="I20">
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>80</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>200</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>200</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>5000</v>
       </c>
-      <c r="Q20">
-        <f>B20*C20*D20</f>
+      <c r="Q21">
+        <f>B21*C21*D21</f>
         <v>0.47986446250000009</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>0.26049022123616827</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>0.65500000000000003</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>0.65500000000000003</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>2.9504999999999999</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.375</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="G21">
-        <v>0.2</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>200</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>200</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>5000</v>
       </c>
-      <c r="Q21">
-        <f>B21*C21*D21</f>
+      <c r="Q22">
+        <f>B22*C22*D22</f>
         <v>1.2658382625000002</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>0.29624637768444761</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.0575000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.08</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24">
-        <v>0.2</v>
-      </c>
-      <c r="H24">
-        <v>0.2</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>80</v>
-      </c>
-      <c r="K24">
-        <v>200</v>
-      </c>
-      <c r="L24">
-        <v>200</v>
-      </c>
-      <c r="O24">
-        <v>3200</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="3">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C25" s="3">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D25">
-        <v>3.1964999999999999</v>
+        <v>1.0575000000000001</v>
       </c>
       <c r="E25">
-        <v>0.375</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="s">
         <v>109</v>
@@ -3789,7 +4195,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="3">
         <v>0.25</v>
@@ -3798,10 +4204,10 @@
         <v>0.25</v>
       </c>
       <c r="D26">
-        <v>1.605</v>
+        <v>3.1964999999999999</v>
       </c>
       <c r="E26">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
@@ -3832,218 +4238,262 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>1.605</v>
+      </c>
+      <c r="E27">
+        <v>0.1875</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <v>200</v>
+      </c>
+      <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="O27">
+        <v>3200</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>0.215</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>0.215</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.25750000000000001</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>109</v>
       </c>
-      <c r="G29">
-        <v>0.2</v>
-      </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>7</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>88</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>88</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>3000</v>
       </c>
-      <c r="Q29">
-        <f>B29*C29*D29</f>
+      <c r="Q30">
+        <f>B30*C30*D30</f>
         <v>1.1902937499999999E-2</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R30" s="1">
         <f t="shared" si="0"/>
         <v>8.4012874973089638E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>0.25750000000000001</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>109</v>
       </c>
-      <c r="G30">
-        <v>0.2</v>
-      </c>
-      <c r="H30">
-        <v>0.2</v>
-      </c>
-      <c r="I30">
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>7</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K31" t="s">
         <v>88</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>88</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>3000</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q31" s="4">
         <v>6.6908999999999996E-2</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R31" s="1">
         <f t="shared" si="0"/>
         <v>1.4945672480533263E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>5.5E-2</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>109</v>
       </c>
-      <c r="G33">
-        <v>0.2</v>
-      </c>
-      <c r="H33">
-        <v>0.2</v>
-      </c>
-      <c r="I33">
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>80</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>200</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>200</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>3200</v>
       </c>
-      <c r="Q33">
-        <f t="shared" ref="Q33:Q34" si="2">B33*C33*D33</f>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q35" si="2">B34*C34*D34</f>
         <v>5.5E-2</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <f t="shared" si="0"/>
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>5.5E-2</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0.3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>109</v>
       </c>
-      <c r="G34">
-        <v>0.2</v>
-      </c>
-      <c r="H34">
-        <v>0.2</v>
-      </c>
-      <c r="I34">
+      <c r="G35">
+        <v>0.2</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>80</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>200</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>200</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>3200</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <f t="shared" si="0"/>
         <v>1.3636363636363635</v>
       </c>

--- a/Source/StockParts.xlsx
+++ b/Source/StockParts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4080" windowWidth="30840" windowHeight="18980"/>
+    <workbookView xWindow="3765" yWindow="4080" windowWidth="30840" windowHeight="18975"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="subs">#REF!</definedName>
     <definedName name="thresh">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
   <si>
     <t>dia</t>
   </si>
@@ -498,13 +498,19 @@
   </si>
   <si>
     <t>Size3to2Adapter</t>
+  </si>
+  <si>
+    <t>fuelTank1-2</t>
+  </si>
+  <si>
+    <t>fuelTank3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,10 +633,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -948,32 +954,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:28">
       <c r="B2" t="s">
@@ -1593,6 +1599,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
       <c r="C12">
         <v>2.5</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>1760</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>0.2</v>
@@ -1666,6 +1675,9 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
       <c r="C13">
         <v>2.5</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>3520</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>0.2</v>
@@ -3093,14 +3105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -3399,36 +3411,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
@@ -3938,10 +3950,10 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3.75</v>
       </c>
       <c r="C17">
